--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -460,23 +460,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -775,11 +775,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -845,16 +845,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="9"/>
@@ -870,10 +870,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="18"/>
       <c r="K4" s="7"/>
       <c r="T4" s="1"/>
@@ -893,8 +893,8 @@
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="7"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -995,11 +995,11 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
@@ -1015,9 +1015,9 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="16" t="s">
         <v>33</v>
       </c>
@@ -1033,9 +1033,9 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1051,11 +1051,11 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
@@ -1074,9 +1074,9 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
@@ -1091,9 +1091,9 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="16" t="s">
         <v>39</v>
       </c>
@@ -1108,9 +1108,9 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
@@ -1125,9 +1125,9 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="16" t="s">
         <v>34</v>
       </c>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="9"/>
@@ -1164,9 +1164,9 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="16" t="s">
         <v>44</v>
       </c>
@@ -1182,9 +1182,9 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="16" t="s">
         <v>45</v>
       </c>
@@ -1200,9 +1200,9 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="16" t="s">
         <v>46</v>
       </c>
@@ -1218,9 +1218,9 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="16" t="s">
         <v>47</v>
       </c>
@@ -1236,9 +1236,9 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="16" t="s">
         <v>48</v>
       </c>
@@ -1254,9 +1254,9 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="16" t="s">
         <v>49</v>
       </c>
@@ -1272,11 +1272,11 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="16" t="s">
         <v>51</v>
       </c>
@@ -1292,9 +1292,9 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1310,9 +1310,9 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="16" t="s">
         <v>53</v>
       </c>
@@ -1328,11 +1328,11 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="16" t="s">
         <v>55</v>
       </c>
@@ -1348,9 +1348,9 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="16" t="s">
         <v>56</v>
       </c>
@@ -1366,9 +1366,9 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="16" t="s">
         <v>34</v>
       </c>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="16"/>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="9"/>
@@ -1405,9 +1405,9 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="16" t="s">
         <v>60</v>
       </c>
@@ -1423,9 +1423,9 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="16" t="s">
         <v>61</v>
       </c>
@@ -1441,9 +1441,9 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="16" t="s">
         <v>62</v>
       </c>
@@ -1459,9 +1459,9 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="16" t="s">
         <v>63</v>
       </c>
@@ -1477,9 +1477,9 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="16" t="s">
         <v>64</v>
       </c>
@@ -1495,9 +1495,9 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="16" t="s">
         <v>34</v>
       </c>
@@ -1513,11 +1513,11 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="16" t="s">
         <v>66</v>
       </c>
@@ -1533,9 +1533,9 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="16" t="s">
         <v>34</v>
       </c>
@@ -1551,11 +1551,11 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="16" t="s">
         <v>68</v>
       </c>
@@ -1571,9 +1571,9 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="16" t="s">
         <v>69</v>
       </c>
@@ -1589,9 +1589,9 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="16" t="s">
         <v>70</v>
       </c>
@@ -1606,9 +1606,9 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="16" t="s">
         <v>34</v>
       </c>
@@ -1623,11 +1623,11 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="16" t="s">
         <v>72</v>
       </c>
@@ -1642,9 +1642,9 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="16" t="s">
         <v>73</v>
       </c>
@@ -1659,9 +1659,9 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="16" t="s">
         <v>74</v>
       </c>
@@ -1676,9 +1676,9 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="16" t="s">
         <v>34</v>
       </c>
@@ -1693,16 +1693,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="16"/>
-      <c r="I49" s="19" t="s">
+      <c r="I49" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="9"/>
@@ -1715,9 +1715,9 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="16" t="s">
         <v>77</v>
       </c>
@@ -1734,9 +1734,9 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="16" t="s">
         <v>78</v>
       </c>
@@ -1752,9 +1752,9 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="16" t="s">
         <v>79</v>
       </c>
@@ -1770,9 +1770,9 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="16" t="s">
         <v>80</v>
       </c>
@@ -1789,9 +1789,9 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="16" t="s">
         <v>81</v>
       </c>
@@ -1807,9 +1807,9 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="16" t="s">
         <v>82</v>
       </c>
@@ -1825,9 +1825,9 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="16" t="s">
         <v>83</v>
       </c>
@@ -1843,9 +1843,9 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="16" t="s">
         <v>84</v>
       </c>
@@ -2163,16 +2163,54 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2189,54 +2227,16 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2249,7 +2249,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2262,11 +2262,11 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
@@ -2350,16 +2350,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="5"/>
@@ -2384,10 +2384,10 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="18"/>
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
@@ -2416,8 +2416,8 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="7"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2570,11 +2570,11 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
@@ -2599,9 +2599,9 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
@@ -2626,9 +2626,9 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2653,11 +2653,11 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
@@ -2682,9 +2682,9 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,9 +2709,9 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
@@ -2736,9 +2736,9 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
@@ -2763,9 +2763,9 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
@@ -2790,16 +2790,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -2821,9 +2821,9 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
@@ -2848,9 +2848,9 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
@@ -2875,9 +2875,9 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
@@ -2902,9 +2902,9 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
@@ -2929,9 +2929,9 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
@@ -2956,9 +2956,9 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
@@ -2983,11 +2983,11 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
@@ -3012,9 +3012,9 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
@@ -3039,9 +3039,9 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
@@ -3066,11 +3066,11 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
@@ -3095,9 +3095,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
@@ -3122,9 +3122,9 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
@@ -3149,16 +3149,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3180,9 +3180,9 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
@@ -3207,9 +3207,9 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
@@ -3234,9 +3234,9 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
@@ -3261,9 +3261,9 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
@@ -3288,9 +3288,9 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
@@ -3315,9 +3315,9 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
@@ -3342,11 +3342,11 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
@@ -3371,9 +3371,9 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
@@ -3398,11 +3398,11 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
@@ -3427,9 +3427,9 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
@@ -3454,9 +3454,9 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
@@ -3481,9 +3481,9 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
@@ -3508,11 +3508,11 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
@@ -3537,9 +3537,9 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
@@ -3564,9 +3564,9 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
@@ -3591,9 +3591,9 @@
     </row>
     <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="13" t="s">
         <v>34</v>
       </c>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="19" t="s">
+      <c r="G49" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3649,9 +3649,9 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
@@ -3676,9 +3676,9 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
@@ -3703,9 +3703,9 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
@@ -3730,9 +3730,9 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
@@ -3757,9 +3757,9 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
@@ -3784,9 +3784,9 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
@@ -3811,9 +3811,9 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
@@ -3838,9 +3838,9 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
@@ -4135,6 +4135,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D10"/>
@@ -4151,62 +4207,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:G47"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\皮皮榆\www.aliyun.com\01效果图 以及 网址  自取\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\张冰雪\Desktop\www.aliyun.com\01效果图 以及 网址  自取\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90076C4A-1860-44E2-93CC-2FA90FCA6698}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="计划完成节点" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +337,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,23 +461,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -751,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG77"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -775,11 +776,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -845,16 +846,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="9"/>
@@ -870,10 +871,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="18"/>
       <c r="K4" s="7"/>
       <c r="T4" s="1"/>
@@ -893,8 +894,8 @@
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="7"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -995,11 +996,11 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
@@ -1015,9 +1016,9 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
         <v>33</v>
       </c>
@@ -1033,9 +1034,9 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1051,11 +1052,11 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
@@ -1074,9 +1075,9 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
@@ -1091,9 +1092,9 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
         <v>39</v>
       </c>
@@ -1108,9 +1109,9 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
@@ -1125,9 +1126,9 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
         <v>34</v>
       </c>
@@ -1142,16 +1143,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="9"/>
@@ -1164,9 +1165,9 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="16" t="s">
         <v>44</v>
       </c>
@@ -1182,9 +1183,9 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="16" t="s">
         <v>45</v>
       </c>
@@ -1200,9 +1201,9 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="16" t="s">
         <v>46</v>
       </c>
@@ -1218,9 +1219,9 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="16" t="s">
         <v>47</v>
       </c>
@@ -1236,9 +1237,9 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="16" t="s">
         <v>48</v>
       </c>
@@ -1254,9 +1255,9 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="16" t="s">
         <v>49</v>
       </c>
@@ -1272,11 +1273,11 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="16" t="s">
         <v>51</v>
       </c>
@@ -1292,9 +1293,9 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1310,9 +1311,9 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="16" t="s">
         <v>53</v>
       </c>
@@ -1328,11 +1329,11 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="16" t="s">
         <v>55</v>
       </c>
@@ -1348,9 +1349,9 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="16" t="s">
         <v>56</v>
       </c>
@@ -1366,9 +1367,9 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="16" t="s">
         <v>34</v>
       </c>
@@ -1383,16 +1384,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="9"/>
@@ -1405,9 +1406,9 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="16" t="s">
         <v>60</v>
       </c>
@@ -1423,9 +1424,9 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="16" t="s">
         <v>61</v>
       </c>
@@ -1441,9 +1442,9 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="16" t="s">
         <v>62</v>
       </c>
@@ -1459,9 +1460,9 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="16" t="s">
         <v>63</v>
       </c>
@@ -1477,9 +1478,9 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="16" t="s">
         <v>64</v>
       </c>
@@ -1495,9 +1496,9 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="16" t="s">
         <v>34</v>
       </c>
@@ -1513,11 +1514,11 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="16" t="s">
         <v>66</v>
       </c>
@@ -1533,9 +1534,9 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="16" t="s">
         <v>34</v>
       </c>
@@ -1551,11 +1552,11 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="16" t="s">
         <v>68</v>
       </c>
@@ -1571,9 +1572,9 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="16" t="s">
         <v>69</v>
       </c>
@@ -1589,9 +1590,9 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="16" t="s">
         <v>70</v>
       </c>
@@ -1606,9 +1607,9 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="16" t="s">
         <v>34</v>
       </c>
@@ -1623,11 +1624,11 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="16" t="s">
         <v>72</v>
       </c>
@@ -1642,9 +1643,9 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="16" t="s">
         <v>73</v>
       </c>
@@ -1659,9 +1660,9 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="16" t="s">
         <v>74</v>
       </c>
@@ -1676,9 +1677,9 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="16" t="s">
         <v>34</v>
       </c>
@@ -1693,16 +1694,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="16"/>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="9"/>
@@ -1715,9 +1716,9 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="16" t="s">
         <v>77</v>
       </c>
@@ -1734,9 +1735,9 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="16" t="s">
         <v>78</v>
       </c>
@@ -1752,9 +1753,9 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="16" t="s">
         <v>79</v>
       </c>
@@ -1770,9 +1771,9 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="16" t="s">
         <v>80</v>
       </c>
@@ -1789,9 +1790,9 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="16" t="s">
         <v>81</v>
       </c>
@@ -1807,9 +1808,9 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="16" t="s">
         <v>82</v>
       </c>
@@ -1825,9 +1826,9 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="16" t="s">
         <v>83</v>
       </c>
@@ -1843,9 +1844,9 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="16" t="s">
         <v>84</v>
       </c>
@@ -2163,54 +2164,16 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2227,16 +2190,54 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2245,11 +2246,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2262,11 +2263,11 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
@@ -2350,16 +2351,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="5"/>
@@ -2384,10 +2385,10 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="18"/>
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
@@ -2416,8 +2417,8 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="7"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2570,11 +2571,11 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
@@ -2599,9 +2600,9 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
@@ -2626,9 +2627,9 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2653,11 +2654,11 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
@@ -2682,9 +2683,9 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,9 +2710,9 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
@@ -2736,9 +2737,9 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
@@ -2763,9 +2764,9 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
@@ -2790,16 +2791,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -2821,9 +2822,9 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
@@ -2848,9 +2849,9 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
@@ -2875,9 +2876,9 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
@@ -2902,9 +2903,9 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
@@ -2929,9 +2930,9 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
@@ -2956,9 +2957,9 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
@@ -2983,11 +2984,11 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
@@ -3012,9 +3013,9 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
@@ -3039,9 +3040,9 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
@@ -3066,11 +3067,11 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
@@ -3095,9 +3096,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
@@ -3122,9 +3123,9 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
@@ -3149,16 +3150,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3180,16 +3181,16 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="18"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -3207,9 +3208,9 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
@@ -3234,9 +3235,9 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
@@ -3261,9 +3262,9 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
@@ -3288,9 +3289,9 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
@@ -3315,9 +3316,9 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
@@ -3342,11 +3343,11 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
@@ -3371,9 +3372,9 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
@@ -3398,11 +3399,11 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
@@ -3427,9 +3428,9 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
@@ -3454,9 +3455,9 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
@@ -3481,9 +3482,9 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
@@ -3508,11 +3509,11 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
@@ -3537,9 +3538,9 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
@@ -3564,9 +3565,9 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
@@ -3591,9 +3592,9 @@
     </row>
     <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="13" t="s">
         <v>34</v>
       </c>
@@ -3618,16 +3619,16 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3649,9 +3650,9 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
@@ -3676,9 +3677,9 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
@@ -3703,9 +3704,9 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
@@ -3730,9 +3731,9 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
@@ -3757,9 +3758,9 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
@@ -3784,9 +3785,9 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
@@ -3811,9 +3812,9 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
@@ -3838,9 +3839,9 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
@@ -4135,25 +4136,43 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B32:D38"/>
@@ -4170,43 +4189,25 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="B41:D44"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:G18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -460,23 +460,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -775,11 +775,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -845,16 +845,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="9"/>
@@ -870,10 +870,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="18"/>
       <c r="K4" s="7"/>
       <c r="T4" s="1"/>
@@ -893,8 +893,8 @@
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="7"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -995,11 +995,11 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
@@ -1015,9 +1015,9 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
         <v>33</v>
       </c>
@@ -1033,9 +1033,9 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1051,11 +1051,11 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
@@ -1074,9 +1074,9 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
@@ -1091,9 +1091,9 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
         <v>39</v>
       </c>
@@ -1108,9 +1108,9 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
@@ -1125,9 +1125,9 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
         <v>34</v>
       </c>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="9"/>
@@ -1164,9 +1164,9 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="16" t="s">
         <v>44</v>
       </c>
@@ -1182,9 +1182,9 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="16" t="s">
         <v>45</v>
       </c>
@@ -1200,9 +1200,9 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="16" t="s">
         <v>46</v>
       </c>
@@ -1218,9 +1218,9 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="16" t="s">
         <v>47</v>
       </c>
@@ -1236,9 +1236,9 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="16" t="s">
         <v>48</v>
       </c>
@@ -1254,9 +1254,9 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="16" t="s">
         <v>49</v>
       </c>
@@ -1272,11 +1272,11 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="16" t="s">
         <v>51</v>
       </c>
@@ -1292,9 +1292,9 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1310,9 +1310,9 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="16" t="s">
         <v>53</v>
       </c>
@@ -1328,11 +1328,11 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="16" t="s">
         <v>55</v>
       </c>
@@ -1348,9 +1348,9 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="16" t="s">
         <v>56</v>
       </c>
@@ -1366,9 +1366,9 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="16" t="s">
         <v>34</v>
       </c>
@@ -1383,16 +1383,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="9"/>
@@ -1405,9 +1405,9 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="16" t="s">
         <v>60</v>
       </c>
@@ -1423,9 +1423,9 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="16" t="s">
         <v>61</v>
       </c>
@@ -1441,9 +1441,9 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="16" t="s">
         <v>62</v>
       </c>
@@ -1459,9 +1459,9 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="16" t="s">
         <v>63</v>
       </c>
@@ -1477,9 +1477,9 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="16" t="s">
         <v>64</v>
       </c>
@@ -1495,9 +1495,9 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="16" t="s">
         <v>34</v>
       </c>
@@ -1513,11 +1513,11 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="16" t="s">
         <v>66</v>
       </c>
@@ -1533,9 +1533,9 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="16" t="s">
         <v>34</v>
       </c>
@@ -1551,11 +1551,11 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="16" t="s">
         <v>68</v>
       </c>
@@ -1571,9 +1571,9 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="16" t="s">
         <v>69</v>
       </c>
@@ -1589,9 +1589,9 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="16" t="s">
         <v>70</v>
       </c>
@@ -1606,9 +1606,9 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="16" t="s">
         <v>34</v>
       </c>
@@ -1623,11 +1623,11 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="16" t="s">
         <v>72</v>
       </c>
@@ -1642,9 +1642,9 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="16" t="s">
         <v>73</v>
       </c>
@@ -1659,9 +1659,9 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="16" t="s">
         <v>74</v>
       </c>
@@ -1676,9 +1676,9 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="16" t="s">
         <v>34</v>
       </c>
@@ -1693,16 +1693,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="16"/>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="9"/>
@@ -1715,9 +1715,9 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="16" t="s">
         <v>77</v>
       </c>
@@ -1734,9 +1734,9 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="16" t="s">
         <v>78</v>
       </c>
@@ -1752,9 +1752,9 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="16" t="s">
         <v>79</v>
       </c>
@@ -1770,9 +1770,9 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="16" t="s">
         <v>80</v>
       </c>
@@ -1789,9 +1789,9 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="16" t="s">
         <v>81</v>
       </c>
@@ -1807,9 +1807,9 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="16" t="s">
         <v>82</v>
       </c>
@@ -1825,9 +1825,9 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="16" t="s">
         <v>83</v>
       </c>
@@ -1843,9 +1843,9 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="16" t="s">
         <v>84</v>
       </c>
@@ -2163,54 +2163,16 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2227,16 +2189,54 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2262,11 +2262,11 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
@@ -2350,16 +2350,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="5"/>
@@ -2384,10 +2384,10 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="18"/>
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
@@ -2416,8 +2416,8 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="7"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2570,11 +2570,11 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
@@ -2599,9 +2599,9 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
@@ -2626,9 +2626,9 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2653,11 +2653,11 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
@@ -2682,9 +2682,9 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
@@ -2709,9 +2709,9 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
@@ -2736,9 +2736,9 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
@@ -2763,9 +2763,9 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
@@ -2790,16 +2790,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -2821,9 +2821,9 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
@@ -2848,9 +2848,9 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
@@ -2875,9 +2875,9 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
@@ -2902,9 +2902,9 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
@@ -2929,9 +2929,9 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
@@ -2956,9 +2956,9 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
@@ -2983,11 +2983,11 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
@@ -3012,9 +3012,9 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
@@ -3039,9 +3039,9 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
@@ -3066,11 +3066,11 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
@@ -3095,9 +3095,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
@@ -3122,9 +3122,9 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
@@ -3149,16 +3149,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3180,9 +3180,9 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
@@ -3207,9 +3207,9 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
@@ -3234,9 +3234,9 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
@@ -3261,9 +3261,9 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
@@ -3288,9 +3288,9 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
@@ -3315,9 +3315,9 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
@@ -3342,11 +3342,11 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
@@ -3371,9 +3371,9 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
@@ -3398,11 +3398,11 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
@@ -3427,9 +3427,9 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
@@ -3454,9 +3454,9 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
@@ -3481,9 +3481,9 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
@@ -3508,11 +3508,11 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
@@ -3537,9 +3537,9 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
@@ -3564,9 +3564,9 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
@@ -3591,9 +3591,9 @@
     </row>
     <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="13" t="s">
         <v>34</v>
       </c>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3649,16 +3649,16 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="18"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="7"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="7"/>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -3676,9 +3676,9 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
@@ -3703,9 +3703,9 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
@@ -3730,9 +3730,9 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
@@ -3757,9 +3757,9 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
@@ -3784,9 +3784,9 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
@@ -3811,9 +3811,9 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
@@ -3838,9 +3838,9 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
@@ -4135,25 +4135,43 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B32:D38"/>
@@ -4170,43 +4188,25 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="B41:D44"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:G18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="计划完成节点" sheetId="1" r:id="rId1"/>
     <sheet name="1.08进度表" sheetId="2" r:id="rId2"/>
+    <sheet name="1.09进度表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -61,8 +62,50 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码较难 有技术问题需要研究
+ 大概1/08下午能完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">上面代码延误 这部分晚自习完成
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="95">
   <si>
     <t>组名</t>
   </si>
@@ -443,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -477,22 +520,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -791,11 +841,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -861,16 +911,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="9"/>
@@ -883,14 +933,14 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="21"/>
       <c r="K4" s="7"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -901,16 +951,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="7"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -921,14 +971,14 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="21"/>
       <c r="L6" s="7"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -939,14 +989,14 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
       <c r="M7" s="7"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -957,14 +1007,14 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
       <c r="N8" s="7"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -975,14 +1025,14 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="21"/>
       <c r="N9" s="7"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -993,14 +1043,14 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="21"/>
       <c r="O10" s="7"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1011,16 +1061,16 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="21"/>
       <c r="P11" s="7"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1031,14 +1081,14 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="16" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="21"/>
       <c r="Q12" s="7"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1049,14 +1099,14 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="16" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
       <c r="R13" s="7"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1067,16 +1117,16 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
       <c r="S14" s="7"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1090,14 +1140,14 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
       <c r="T15" s="7"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1107,14 +1157,14 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
       <c r="T16" s="1"/>
       <c r="U16" s="7"/>
       <c r="V16" s="1"/>
@@ -1124,14 +1174,14 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="21"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="7"/>
@@ -1141,14 +1191,14 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1158,16 +1208,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="22" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="9"/>
@@ -1180,14 +1230,14 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="9"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -1198,14 +1248,14 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="16" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="21"/>
       <c r="K21" s="7"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -1216,14 +1266,14 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="16" t="s">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="21"/>
       <c r="K22" s="7"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -1234,14 +1284,14 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="16" t="s">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="21"/>
       <c r="L23" s="7"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -1252,14 +1302,14 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="16" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="21"/>
       <c r="M24" s="7"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -1270,14 +1320,14 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="16" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="21"/>
       <c r="N25" s="7"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -1288,16 +1338,16 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="16" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="21"/>
       <c r="O26" s="7"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -1308,14 +1358,14 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="16" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="21"/>
       <c r="P27" s="7"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -1326,14 +1376,14 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="16" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="21"/>
       <c r="Q28" s="7"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -1344,16 +1394,16 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="21"/>
       <c r="R29" s="7"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -1364,14 +1414,14 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="16" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="21"/>
       <c r="S30" s="7"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -1382,14 +1432,14 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="16" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="21"/>
       <c r="T31" s="7"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -1399,16 +1449,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="22" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="9"/>
@@ -1421,14 +1471,14 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="16" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="21"/>
       <c r="K33" s="7"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -1439,14 +1489,14 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="16" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="21"/>
       <c r="L34" s="7"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -1457,14 +1507,14 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="16" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="21"/>
       <c r="L35" s="7"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -1475,14 +1525,14 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16" t="s">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="21"/>
       <c r="M36" s="7"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -1493,14 +1543,14 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="16" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="21"/>
       <c r="N37" s="7"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -1511,14 +1561,14 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="16" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="21"/>
       <c r="O38" s="7"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -1529,16 +1579,16 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="16" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="21"/>
       <c r="P39" s="7"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -1549,14 +1599,14 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="16" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="21"/>
       <c r="Q40" s="7"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -1567,16 +1617,16 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="21"/>
       <c r="R41" s="7"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -1587,14 +1637,14 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="16" t="s">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="21"/>
       <c r="S42" s="7"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -1605,14 +1655,14 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="16" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="21"/>
       <c r="T43" s="7"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -1622,14 +1672,14 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="16" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="21"/>
       <c r="T44" s="1"/>
       <c r="U44" s="7"/>
       <c r="V44" s="1"/>
@@ -1639,16 +1689,16 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="16" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="21"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="7"/>
@@ -1658,14 +1708,14 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="16" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="21"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
@@ -1675,14 +1725,14 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="16" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="21"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -1692,13 +1742,13 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="16" t="s">
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="6"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -1709,16 +1759,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="16" t="s">
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17" t="s">
+      <c r="H49" s="19"/>
+      <c r="I49" s="22" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="9"/>
@@ -1731,14 +1781,14 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="16" t="s">
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="21"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="T50" s="1"/>
@@ -1750,14 +1800,14 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="16" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="21"/>
       <c r="M51" s="7"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -1768,14 +1818,14 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="16" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="21"/>
       <c r="N52" s="7"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -1786,14 +1836,14 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="16" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="21"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="T53" s="1"/>
@@ -1805,14 +1855,14 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="16" t="s">
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="21"/>
       <c r="Q54" s="7"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -1823,14 +1873,14 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="16" t="s">
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="21"/>
       <c r="R55" s="7"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -1841,14 +1891,14 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="16" t="s">
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="21"/>
       <c r="S56" s="7"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -1859,14 +1909,14 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="16" t="s">
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="21"/>
       <c r="T57" s="7"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
@@ -1879,8 +1929,8 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -2114,8 +2164,8 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
@@ -2179,54 +2229,16 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2243,16 +2255,54 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2264,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2278,11 +2328,11 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
@@ -2366,16 +2416,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="5"/>
@@ -2397,14 +2447,14 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="10"/>
       <c r="I4" s="5"/>
       <c r="J4" s="10"/>
@@ -2424,16 +2474,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="7"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2451,14 +2501,14 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7"/>
@@ -2478,14 +2528,14 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -2505,14 +2555,14 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -2532,14 +2582,14 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -2559,14 +2609,14 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -2586,16 +2636,16 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -2615,14 +2665,14 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -2642,14 +2692,14 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -2669,16 +2719,16 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -2698,14 +2748,14 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -2725,14 +2775,14 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -2752,14 +2802,14 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -2779,14 +2829,14 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -2806,16 +2856,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="19"/>
+      <c r="G19" s="22" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -2837,14 +2887,14 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -2864,14 +2914,14 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="10"/>
       <c r="I21" s="4"/>
       <c r="J21" s="10"/>
@@ -2891,14 +2941,14 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="10"/>
       <c r="I22" s="4"/>
       <c r="J22" s="10"/>
@@ -2918,14 +2968,14 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="16" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="7"/>
@@ -2945,14 +2995,14 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="16" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -2972,14 +3022,14 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="16" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -2999,16 +3049,16 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -3028,14 +3078,14 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -3055,14 +3105,14 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -3082,16 +3132,16 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -3111,14 +3161,14 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -3138,14 +3188,14 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -3165,16 +3215,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="22" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3196,14 +3246,14 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="16" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="10"/>
       <c r="I33" s="4"/>
       <c r="J33" s="10"/>
@@ -3223,14 +3273,14 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="16" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="7"/>
@@ -3250,14 +3300,14 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="16" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="7"/>
@@ -3277,14 +3327,14 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="16" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -3304,14 +3354,14 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="16" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -3331,14 +3381,14 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="16" t="s">
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -3358,16 +3408,16 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="16" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -3387,14 +3437,14 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -3414,16 +3464,16 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="16" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -3443,14 +3493,14 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="16" t="s">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -3470,14 +3520,14 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="16" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -3497,14 +3547,14 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="16" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="21"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -3524,16 +3574,16 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -3553,14 +3603,14 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="16" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="21"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -3580,14 +3630,14 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="16" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -3607,9 +3657,9 @@
     </row>
     <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="13" t="s">
         <v>34</v>
       </c>
@@ -3634,16 +3684,16 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="16" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
+      <c r="F49" s="19"/>
+      <c r="G49" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3665,14 +3715,14 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="16" t="s">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="10"/>
       <c r="I50" s="4"/>
       <c r="J50" s="7"/>
@@ -3692,14 +3742,14 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="16" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="18"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -3719,14 +3769,14 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="16" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -3746,14 +3796,14 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="16" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="21"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -3773,14 +3823,14 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="16" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="21"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -3800,14 +3850,14 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="16" t="s">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -3827,14 +3877,14 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="16" t="s">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="18"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -3854,14 +3904,14 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="16" t="s">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -3884,8 +3934,8 @@
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -4151,25 +4201,43 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="B32:D38"/>
@@ -4186,7 +4254,1959 @@
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="B41:D44"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B19:D25"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:G31"/>
@@ -4197,11 +6217,12 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="B26:D28"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
@@ -4218,11 +6239,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -526,23 +526,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -841,11 +841,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -911,16 +911,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="9"/>
@@ -936,10 +936,10 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="21"/>
       <c r="K4" s="7"/>
       <c r="T4" s="1"/>
@@ -959,8 +959,8 @@
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="7"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -1061,11 +1061,11 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="19" t="s">
         <v>32</v>
       </c>
@@ -1081,9 +1081,9 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="19" t="s">
         <v>33</v>
       </c>
@@ -1099,9 +1099,9 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="19" t="s">
         <v>34</v>
       </c>
@@ -1117,11 +1117,11 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
         <v>36</v>
       </c>
@@ -1140,9 +1140,9 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="19" t="s">
         <v>38</v>
       </c>
@@ -1157,9 +1157,9 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="19" t="s">
         <v>39</v>
       </c>
@@ -1174,9 +1174,9 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="19" t="s">
         <v>40</v>
       </c>
@@ -1191,9 +1191,9 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="19" t="s">
         <v>34</v>
       </c>
@@ -1208,16 +1208,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="19" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="19"/>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="20" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="9"/>
@@ -1230,9 +1230,9 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="19" t="s">
         <v>44</v>
       </c>
@@ -1248,9 +1248,9 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="19" t="s">
         <v>45</v>
       </c>
@@ -1266,9 +1266,9 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="19" t="s">
         <v>46</v>
       </c>
@@ -1284,9 +1284,9 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="19" t="s">
         <v>47</v>
       </c>
@@ -1302,9 +1302,9 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="19" t="s">
         <v>48</v>
       </c>
@@ -1320,9 +1320,9 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="19" t="s">
         <v>49</v>
       </c>
@@ -1338,11 +1338,11 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1358,9 +1358,9 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="19" t="s">
         <v>52</v>
       </c>
@@ -1376,9 +1376,9 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="19" t="s">
         <v>53</v>
       </c>
@@ -1394,11 +1394,11 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="19" t="s">
         <v>55</v>
       </c>
@@ -1414,9 +1414,9 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="19" t="s">
         <v>56</v>
       </c>
@@ -1432,9 +1432,9 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="19" t="s">
         <v>34</v>
       </c>
@@ -1449,16 +1449,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="19" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="20" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="9"/>
@@ -1471,9 +1471,9 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="19" t="s">
         <v>60</v>
       </c>
@@ -1489,9 +1489,9 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="19" t="s">
         <v>61</v>
       </c>
@@ -1507,9 +1507,9 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="19" t="s">
         <v>62</v>
       </c>
@@ -1525,9 +1525,9 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="19" t="s">
         <v>63</v>
       </c>
@@ -1543,9 +1543,9 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="19" t="s">
         <v>64</v>
       </c>
@@ -1561,9 +1561,9 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="19" t="s">
         <v>34</v>
       </c>
@@ -1579,11 +1579,11 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="19" t="s">
         <v>66</v>
       </c>
@@ -1599,9 +1599,9 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="19" t="s">
         <v>34</v>
       </c>
@@ -1617,11 +1617,11 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="19" t="s">
         <v>68</v>
       </c>
@@ -1637,9 +1637,9 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="19" t="s">
         <v>69</v>
       </c>
@@ -1655,9 +1655,9 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="19" t="s">
         <v>70</v>
       </c>
@@ -1672,9 +1672,9 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="19" t="s">
         <v>34</v>
       </c>
@@ -1689,11 +1689,11 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="19" t="s">
         <v>72</v>
       </c>
@@ -1708,9 +1708,9 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="19" t="s">
         <v>73</v>
       </c>
@@ -1725,9 +1725,9 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="19" t="s">
         <v>74</v>
       </c>
@@ -1742,9 +1742,9 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="19" t="s">
         <v>34</v>
       </c>
@@ -1759,16 +1759,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="19" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="19"/>
-      <c r="I49" s="22" t="s">
+      <c r="I49" s="20" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="9"/>
@@ -1781,9 +1781,9 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="19" t="s">
         <v>77</v>
       </c>
@@ -1800,9 +1800,9 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="19" t="s">
         <v>78</v>
       </c>
@@ -1818,9 +1818,9 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="19" t="s">
         <v>79</v>
       </c>
@@ -1836,9 +1836,9 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="19" t="s">
         <v>80</v>
       </c>
@@ -1855,9 +1855,9 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="19" t="s">
         <v>81</v>
       </c>
@@ -1873,9 +1873,9 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="19" t="s">
         <v>82</v>
       </c>
@@ -1891,9 +1891,9 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="19" t="s">
         <v>83</v>
       </c>
@@ -1909,9 +1909,9 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="19" t="s">
         <v>84</v>
       </c>
@@ -2229,16 +2229,54 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2255,54 +2293,16 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
@@ -2328,11 +2328,11 @@
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
@@ -2416,16 +2416,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="5"/>
@@ -2450,10 +2450,10 @@
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="21"/>
       <c r="H4" s="10"/>
       <c r="I4" s="5"/>
@@ -2482,8 +2482,8 @@
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="7"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -2636,11 +2636,11 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="19" t="s">
         <v>32</v>
       </c>
@@ -2665,9 +2665,9 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
@@ -2692,9 +2692,9 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="19" t="s">
         <v>34</v>
       </c>
@@ -2719,11 +2719,11 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="19" t="s">
         <v>36</v>
       </c>
@@ -2748,9 +2748,9 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
         <v>38</v>
       </c>
@@ -2775,9 +2775,9 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="19" t="s">
         <v>39</v>
       </c>
@@ -2802,9 +2802,9 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="19" t="s">
         <v>40</v>
       </c>
@@ -2829,9 +2829,9 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="19" t="s">
         <v>34</v>
       </c>
@@ -2856,16 +2856,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="20" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -2887,9 +2887,9 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="19" t="s">
         <v>44</v>
       </c>
@@ -2914,9 +2914,9 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="19" t="s">
         <v>45</v>
       </c>
@@ -2941,9 +2941,9 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="19" t="s">
         <v>46</v>
       </c>
@@ -2968,9 +2968,9 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="19" t="s">
         <v>47</v>
       </c>
@@ -2995,9 +2995,9 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="19" t="s">
         <v>48</v>
       </c>
@@ -3022,9 +3022,9 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="19" t="s">
         <v>49</v>
       </c>
@@ -3049,11 +3049,11 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="19" t="s">
         <v>51</v>
       </c>
@@ -3078,9 +3078,9 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="19" t="s">
         <v>52</v>
       </c>
@@ -3105,9 +3105,9 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="19" t="s">
         <v>53</v>
       </c>
@@ -3132,11 +3132,11 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="19" t="s">
         <v>55</v>
       </c>
@@ -3161,9 +3161,9 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="19" t="s">
         <v>56</v>
       </c>
@@ -3188,9 +3188,9 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="19" t="s">
         <v>34</v>
       </c>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="19" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="19"/>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="20" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3246,9 +3246,9 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="19" t="s">
         <v>60</v>
       </c>
@@ -3273,9 +3273,9 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="19" t="s">
         <v>61</v>
       </c>
@@ -3300,9 +3300,9 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="19" t="s">
         <v>62</v>
       </c>
@@ -3327,9 +3327,9 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="19" t="s">
         <v>63</v>
       </c>
@@ -3354,9 +3354,9 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="19" t="s">
         <v>64</v>
       </c>
@@ -3381,9 +3381,9 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="19" t="s">
         <v>34</v>
       </c>
@@ -3408,11 +3408,11 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="19" t="s">
         <v>66</v>
       </c>
@@ -3437,9 +3437,9 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="19" t="s">
         <v>34</v>
       </c>
@@ -3464,11 +3464,11 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="19" t="s">
         <v>68</v>
       </c>
@@ -3493,9 +3493,9 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="19" t="s">
         <v>69</v>
       </c>
@@ -3520,9 +3520,9 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="19" t="s">
         <v>70</v>
       </c>
@@ -3547,9 +3547,9 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="19" t="s">
         <v>34</v>
       </c>
@@ -3574,11 +3574,11 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="19" t="s">
         <v>72</v>
       </c>
@@ -3603,9 +3603,9 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="19" t="s">
         <v>73</v>
       </c>
@@ -3630,9 +3630,9 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="19" t="s">
         <v>74</v>
       </c>
@@ -3657,9 +3657,9 @@
     </row>
     <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="13" t="s">
         <v>34</v>
       </c>
@@ -3684,16 +3684,16 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="19"/>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="20" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3715,9 +3715,9 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="19" t="s">
         <v>77</v>
       </c>
@@ -3742,9 +3742,9 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="19" t="s">
         <v>78</v>
       </c>
@@ -3769,9 +3769,9 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="19" t="s">
         <v>79</v>
       </c>
@@ -3796,9 +3796,9 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="19" t="s">
         <v>80</v>
       </c>
@@ -3823,9 +3823,9 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="19" t="s">
         <v>81</v>
       </c>
@@ -3850,9 +3850,9 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="19" t="s">
         <v>82</v>
       </c>
@@ -3877,9 +3877,9 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="19" t="s">
         <v>83</v>
       </c>
@@ -3904,9 +3904,9 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="19" t="s">
         <v>84</v>
       </c>
@@ -4201,6 +4201,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D10"/>
@@ -4217,11 +4273,1921 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="7"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="19"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="19"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="19"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="19"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="B19:D25"/>
     <mergeCell ref="E19:F19"/>
@@ -4278,1970 +6244,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="19"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="19"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="7"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="19"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="19"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-    </row>
-    <row r="58" spans="1:23" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:G47"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:G18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -129,6 +129,22 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">结构理不清楚，蒙圈状态，下午调整
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">图片动图的嵌套有点蒙，卡了半天，晚上完成
 </t>
         </r>
       </text>
@@ -566,23 +582,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -881,11 +897,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -951,16 +967,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="7"/>
@@ -976,10 +992,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="15"/>
       <c r="K4" s="8"/>
       <c r="T4" s="10"/>
@@ -999,8 +1015,8 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="8"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -1101,11 +1117,11 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="13" t="s">
         <v>32</v>
       </c>
@@ -1121,9 +1137,9 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1139,9 +1155,9 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="13" t="s">
         <v>34</v>
       </c>
@@ -1157,11 +1173,11 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="13" t="s">
         <v>36</v>
       </c>
@@ -1180,9 +1196,9 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="13" t="s">
         <v>38</v>
       </c>
@@ -1197,9 +1213,9 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="13" t="s">
         <v>39</v>
       </c>
@@ -1214,9 +1230,9 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="13" t="s">
         <v>40</v>
       </c>
@@ -1231,9 +1247,9 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="13" t="s">
         <v>34</v>
       </c>
@@ -1248,16 +1264,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="13"/>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="7"/>
@@ -1270,9 +1286,9 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
         <v>44</v>
       </c>
@@ -1288,9 +1304,9 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
         <v>45</v>
       </c>
@@ -1306,9 +1322,9 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="13" t="s">
         <v>46</v>
       </c>
@@ -1324,9 +1340,9 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="13" t="s">
         <v>47</v>
       </c>
@@ -1342,9 +1358,9 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
         <v>48</v>
       </c>
@@ -1360,9 +1376,9 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
         <v>49</v>
       </c>
@@ -1378,11 +1394,11 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="13" t="s">
         <v>51</v>
       </c>
@@ -1398,9 +1414,9 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="13" t="s">
         <v>52</v>
       </c>
@@ -1416,9 +1432,9 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="13" t="s">
         <v>53</v>
       </c>
@@ -1434,11 +1450,11 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="13" t="s">
         <v>55</v>
       </c>
@@ -1454,9 +1470,9 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="13" t="s">
         <v>56</v>
       </c>
@@ -1472,9 +1488,9 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="13" t="s">
         <v>34</v>
       </c>
@@ -1489,16 +1505,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="13"/>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="7"/>
@@ -1511,9 +1527,9 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="13" t="s">
         <v>60</v>
       </c>
@@ -1529,9 +1545,9 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="13" t="s">
         <v>61</v>
       </c>
@@ -1547,9 +1563,9 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="13" t="s">
         <v>62</v>
       </c>
@@ -1565,9 +1581,9 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="13" t="s">
         <v>63</v>
       </c>
@@ -1583,9 +1599,9 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="13" t="s">
         <v>64</v>
       </c>
@@ -1601,9 +1617,9 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="13" t="s">
         <v>34</v>
       </c>
@@ -1619,11 +1635,11 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="13" t="s">
         <v>66</v>
       </c>
@@ -1639,9 +1655,9 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
       <c r="G40" s="13" t="s">
         <v>34</v>
       </c>
@@ -1657,11 +1673,11 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="13" t="s">
         <v>68</v>
       </c>
@@ -1677,9 +1693,9 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="13" t="s">
         <v>69</v>
       </c>
@@ -1695,9 +1711,9 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="13" t="s">
         <v>70</v>
       </c>
@@ -1712,9 +1728,9 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="13" t="s">
         <v>34</v>
       </c>
@@ -1729,11 +1745,11 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="13" t="s">
         <v>72</v>
       </c>
@@ -1748,9 +1764,9 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="13" t="s">
         <v>73</v>
       </c>
@@ -1765,9 +1781,9 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="13" t="s">
         <v>74</v>
       </c>
@@ -1782,9 +1798,9 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="13" t="s">
         <v>34</v>
       </c>
@@ -1799,16 +1815,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="13"/>
-      <c r="I49" s="14" t="s">
+      <c r="I49" s="16" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="7"/>
@@ -1821,9 +1837,9 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="13" t="s">
         <v>77</v>
       </c>
@@ -1840,9 +1856,9 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="13" t="s">
         <v>78</v>
       </c>
@@ -1858,9 +1874,9 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="13" t="s">
         <v>79</v>
       </c>
@@ -1876,9 +1892,9 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
       <c r="G53" s="13" t="s">
         <v>80</v>
       </c>
@@ -1895,9 +1911,9 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="13" t="s">
         <v>81</v>
       </c>
@@ -1913,9 +1929,9 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="13" t="s">
         <v>82</v>
       </c>
@@ -1931,9 +1947,9 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
       <c r="G56" s="13" t="s">
         <v>83</v>
       </c>
@@ -1949,9 +1965,9 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
       <c r="G57" s="13" t="s">
         <v>84</v>
       </c>
@@ -2269,54 +2285,16 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2333,16 +2311,54 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,11 +2384,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -2431,16 +2447,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -2456,10 +2472,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="15"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
@@ -2479,8 +2495,8 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="8"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2575,11 +2591,11 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="13" t="s">
         <v>32</v>
       </c>
@@ -2594,9 +2610,9 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
         <v>33</v>
       </c>
@@ -2611,9 +2627,9 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="13" t="s">
         <v>34</v>
       </c>
@@ -2628,11 +2644,11 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="13" t="s">
         <v>36</v>
       </c>
@@ -2647,9 +2663,9 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="13" t="s">
         <v>38</v>
       </c>
@@ -2663,9 +2679,9 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="13" t="s">
         <v>39</v>
       </c>
@@ -2679,9 +2695,9 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
@@ -2695,9 +2711,9 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="13" t="s">
         <v>34</v>
       </c>
@@ -2711,16 +2727,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -2732,9 +2748,9 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="13" t="s">
         <v>44</v>
       </c>
@@ -2749,9 +2765,9 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="13" t="s">
         <v>45</v>
       </c>
@@ -2766,9 +2782,9 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
         <v>46</v>
       </c>
@@ -2783,9 +2799,9 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="13" t="s">
         <v>47</v>
       </c>
@@ -2800,9 +2816,9 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="13" t="s">
         <v>48</v>
       </c>
@@ -2817,9 +2833,9 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="13" t="s">
         <v>49</v>
       </c>
@@ -2834,11 +2850,11 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
         <v>51</v>
       </c>
@@ -2853,9 +2869,9 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="13" t="s">
         <v>52</v>
       </c>
@@ -2870,9 +2886,9 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
         <v>53</v>
       </c>
@@ -2887,11 +2903,11 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="13" t="s">
         <v>55</v>
       </c>
@@ -2906,9 +2922,9 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="13" t="s">
         <v>56</v>
       </c>
@@ -2923,9 +2939,9 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="13" t="s">
         <v>34</v>
       </c>
@@ -2939,16 +2955,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -2960,9 +2976,9 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="13" t="s">
         <v>60</v>
       </c>
@@ -2977,9 +2993,9 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
         <v>61</v>
       </c>
@@ -2994,9 +3010,9 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="13" t="s">
         <v>62</v>
       </c>
@@ -3011,9 +3027,9 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="13" t="s">
         <v>63</v>
       </c>
@@ -3028,9 +3044,9 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="13" t="s">
         <v>64</v>
       </c>
@@ -3045,9 +3061,9 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="13" t="s">
         <v>34</v>
       </c>
@@ -3062,11 +3078,11 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="13" t="s">
         <v>66</v>
       </c>
@@ -3081,9 +3097,9 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="13" t="s">
         <v>34</v>
       </c>
@@ -3098,11 +3114,11 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="13" t="s">
         <v>68</v>
       </c>
@@ -3117,9 +3133,9 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="13" t="s">
         <v>69</v>
       </c>
@@ -3134,9 +3150,9 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="13" t="s">
         <v>70</v>
       </c>
@@ -3150,9 +3166,9 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="13" t="s">
         <v>34</v>
       </c>
@@ -3166,11 +3182,11 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="13" t="s">
         <v>72</v>
       </c>
@@ -3184,9 +3200,9 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="13" t="s">
         <v>73</v>
       </c>
@@ -3200,9 +3216,9 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
         <v>74</v>
       </c>
@@ -3216,9 +3232,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3232,16 +3248,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3253,9 +3269,9 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="13" t="s">
         <v>77</v>
       </c>
@@ -3271,9 +3287,9 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="13" t="s">
         <v>78</v>
       </c>
@@ -3288,9 +3304,9 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="13" t="s">
         <v>79</v>
       </c>
@@ -3305,9 +3321,9 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="13" t="s">
         <v>80</v>
       </c>
@@ -3323,9 +3339,9 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="13" t="s">
         <v>81</v>
       </c>
@@ -3340,9 +3356,9 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="13" t="s">
         <v>82</v>
       </c>
@@ -3357,9 +3373,9 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
         <v>83</v>
       </c>
@@ -3374,9 +3390,9 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="13" t="s">
         <v>84</v>
       </c>
@@ -3622,51 +3638,17 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D44"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G3:G18"/>
@@ -3683,17 +3665,51 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3706,7 +3722,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B49" sqref="B49:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3720,11 +3736,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -3783,16 +3799,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -3808,10 +3824,10 @@
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="15"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
@@ -3831,8 +3847,8 @@
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="4"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -3928,11 +3944,11 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="13" t="s">
         <v>32</v>
       </c>
@@ -3947,9 +3963,9 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="13" t="s">
         <v>33</v>
       </c>
@@ -3964,9 +3980,9 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="13" t="s">
         <v>34</v>
       </c>
@@ -3981,11 +3997,11 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="13" t="s">
         <v>36</v>
       </c>
@@ -4000,9 +4016,9 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="13" t="s">
         <v>38</v>
       </c>
@@ -4016,9 +4032,9 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="13" t="s">
         <v>39</v>
       </c>
@@ -4032,9 +4048,9 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
@@ -4048,9 +4064,9 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="13" t="s">
         <v>34</v>
       </c>
@@ -4064,16 +4080,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="16" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -4085,9 +4101,9 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="13" t="s">
         <v>44</v>
       </c>
@@ -4102,9 +4118,9 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="13" t="s">
         <v>45</v>
       </c>
@@ -4119,9 +4135,9 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="13" t="s">
         <v>46</v>
       </c>
@@ -4136,9 +4152,9 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="13" t="s">
         <v>47</v>
       </c>
@@ -4154,9 +4170,9 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="13" t="s">
         <v>48</v>
       </c>
@@ -4171,9 +4187,9 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="13" t="s">
         <v>49</v>
       </c>
@@ -4188,11 +4204,11 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="13" t="s">
         <v>51</v>
       </c>
@@ -4207,9 +4223,9 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="13" t="s">
         <v>52</v>
       </c>
@@ -4224,9 +4240,9 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="13" t="s">
         <v>53</v>
       </c>
@@ -4241,11 +4257,11 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="13" t="s">
         <v>55</v>
       </c>
@@ -4260,9 +4276,9 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="13" t="s">
         <v>56</v>
       </c>
@@ -4277,9 +4293,9 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="13" t="s">
         <v>34</v>
       </c>
@@ -4293,16 +4309,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="16" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -4314,9 +4330,9 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="13" t="s">
         <v>60</v>
       </c>
@@ -4331,9 +4347,9 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
         <v>61</v>
       </c>
@@ -4348,9 +4364,9 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="13" t="s">
         <v>62</v>
       </c>
@@ -4365,15 +4381,16 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="13" t="s">
         <v>63</v>
       </c>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="8"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
@@ -4382,9 +4399,9 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="13" t="s">
         <v>64</v>
       </c>
@@ -4399,9 +4416,9 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="13" t="s">
         <v>34</v>
       </c>
@@ -4416,11 +4433,11 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="13" t="s">
         <v>66</v>
       </c>
@@ -4435,9 +4452,9 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="13" t="s">
         <v>34</v>
       </c>
@@ -4452,11 +4469,11 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="13" t="s">
         <v>68</v>
       </c>
@@ -4471,9 +4488,9 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="13" t="s">
         <v>69</v>
       </c>
@@ -4488,9 +4505,9 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="13" t="s">
         <v>70</v>
       </c>
@@ -4504,9 +4521,9 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="13" t="s">
         <v>34</v>
       </c>
@@ -4520,11 +4537,11 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="13" t="s">
         <v>72</v>
       </c>
@@ -4538,9 +4555,9 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="13" t="s">
         <v>73</v>
       </c>
@@ -4554,9 +4571,9 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="13" t="s">
         <v>74</v>
       </c>
@@ -4570,9 +4587,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -4586,16 +4603,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="16" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -4607,9 +4624,9 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="13" t="s">
         <v>77</v>
       </c>
@@ -4625,15 +4642,15 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="13" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
-      <c r="K51" s="8"/>
+      <c r="K51" s="4"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
@@ -4642,9 +4659,9 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="13" t="s">
         <v>79</v>
       </c>
@@ -4659,9 +4676,9 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="13" t="s">
         <v>80</v>
       </c>
@@ -4677,9 +4694,9 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="13" t="s">
         <v>81</v>
       </c>
@@ -4694,9 +4711,9 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="13" t="s">
         <v>82</v>
       </c>
@@ -4711,9 +4728,9 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="13" t="s">
         <v>83</v>
       </c>
@@ -4728,9 +4745,9 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="13" t="s">
         <v>84</v>
       </c>
@@ -4976,52 +4993,16 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B29:D31"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G3:G18"/>
@@ -5038,16 +5019,52 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -117,6 +117,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基础代码完成  
+   特效延误</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>延迟</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J23" authorId="0" shapeId="0">
       <text>
         <r>
@@ -130,6 +161,36 @@
           </rPr>
           <t xml:space="preserve">结构理不清楚，蒙圈状态，下午调整
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码不会敲，思路乱  延后在做</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码延误 正在做 ！！</t>
         </r>
       </text>
     </comment>
@@ -3722,7 +3783,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:D57"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3867,7 +3928,8 @@
       <c r="F6" s="13"/>
       <c r="G6" s="15"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="8"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -3884,7 +3946,8 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="15"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="2"/>
+      <c r="N7" s="8"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -4161,7 +4224,8 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="7"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
@@ -4178,7 +4242,8 @@
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="2"/>
+      <c r="M24" s="7"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="计划完成节点" sheetId="1" r:id="rId1"/>
     <sheet name="1.08进度表" sheetId="2" r:id="rId2"/>
     <sheet name="1.09进度表" sheetId="3" r:id="rId3"/>
+    <sheet name="1.10进度表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -214,8 +215,194 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码较难 有技术问题需要研究
+ 大概1/08下午能完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">上面代码延误 这部分晚自习完成
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码延误，轮播图效果较多，这部分暂时未做</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基础代码完成  
+   特效延误</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>延迟</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以上代码灵感乍现，导致这个区块延迟~~</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">结构理不清楚，蒙圈状态，下午调整
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码不会敲，思路乱  延后在做</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码延误 正在做 ！！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">图片动图的嵌套有点蒙，卡了半天，晚上完成
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>身体不舒服！ 效率低 大概下午搞定</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="95">
   <si>
     <t>组名</t>
   </si>
@@ -506,7 +693,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +750,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -617,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,23 +836,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -958,11 +1158,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -1031,13 +1231,13 @@
       <c r="D3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="7"/>
@@ -1050,14 +1250,14 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="18"/>
       <c r="K4" s="8"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
@@ -1068,16 +1268,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="8"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -1088,14 +1288,14 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="18"/>
       <c r="L6" s="8"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -1106,14 +1306,14 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="13" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="18"/>
       <c r="M7" s="8"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -1124,14 +1324,14 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="13" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="18"/>
       <c r="N8" s="8"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -1142,14 +1342,14 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18"/>
       <c r="N9" s="8"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -1160,14 +1360,14 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="13" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18"/>
       <c r="O10" s="8"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -1183,11 +1383,11 @@
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18"/>
       <c r="P11" s="8"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -1201,11 +1401,11 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18"/>
       <c r="Q12" s="8"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
@@ -1219,11 +1419,11 @@
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="18"/>
       <c r="R13" s="8"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -1234,16 +1434,16 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="18"/>
       <c r="S14" s="8"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
@@ -1257,14 +1457,14 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="13" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="18"/>
       <c r="T15" s="8"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -1274,14 +1474,14 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="13" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="18"/>
       <c r="T16" s="10"/>
       <c r="U16" s="8"/>
       <c r="V16" s="10"/>
@@ -1291,14 +1491,14 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="13" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="18"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="8"/>
@@ -1308,14 +1508,14 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="13" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="18"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -1330,11 +1530,11 @@
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="7"/>
@@ -1350,11 +1550,11 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="7"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
@@ -1368,11 +1568,11 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="18"/>
       <c r="K21" s="8"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -1386,11 +1586,11 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="18"/>
       <c r="K22" s="8"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -1404,11 +1604,11 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="18"/>
       <c r="L23" s="8"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -1422,11 +1622,11 @@
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="18"/>
       <c r="M24" s="8"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
@@ -1440,11 +1640,11 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="18"/>
       <c r="N25" s="8"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -1460,11 +1660,11 @@
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="18"/>
       <c r="O26" s="8"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
@@ -1478,11 +1678,11 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="18"/>
       <c r="P27" s="8"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
@@ -1496,11 +1696,11 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="18"/>
       <c r="Q28" s="8"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
@@ -1516,11 +1716,11 @@
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="15"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="18"/>
       <c r="R29" s="8"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
@@ -1534,11 +1734,11 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="18"/>
       <c r="S30" s="8"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
@@ -1552,11 +1752,11 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18"/>
       <c r="T31" s="8"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -1571,11 +1771,11 @@
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="16" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="7"/>
@@ -1591,11 +1791,11 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="18"/>
       <c r="K33" s="8"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
@@ -1609,11 +1809,11 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="18"/>
       <c r="L34" s="8"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
@@ -1627,11 +1827,11 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="18"/>
       <c r="L35" s="8"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -1645,11 +1845,11 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="18"/>
       <c r="M36" s="8"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
@@ -1663,11 +1863,11 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="18"/>
       <c r="N37" s="8"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -1681,11 +1881,11 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="18"/>
       <c r="O38" s="8"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
@@ -1701,11 +1901,11 @@
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="18"/>
       <c r="P39" s="8"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -1719,11 +1919,11 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="18"/>
       <c r="Q40" s="8"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
@@ -1739,11 +1939,11 @@
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="18"/>
       <c r="R41" s="8"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
@@ -1757,11 +1957,11 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="18"/>
       <c r="S42" s="8"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
@@ -1775,11 +1975,11 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="15"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="18"/>
       <c r="T43" s="8"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -1792,11 +1992,11 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="15"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="18"/>
       <c r="T44" s="10"/>
       <c r="U44" s="8"/>
       <c r="V44" s="10"/>
@@ -1811,11 +2011,11 @@
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="18"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="8"/>
@@ -1828,11 +2028,11 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
@@ -1845,11 +2045,11 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="15"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="18"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -1862,10 +2062,10 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="1"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
@@ -1881,11 +2081,11 @@
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="13"/>
-      <c r="I49" s="16" t="s">
+      <c r="H49" s="16"/>
+      <c r="I49" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="7"/>
@@ -1901,11 +2101,11 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="15"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="T50" s="10"/>
@@ -1920,11 +2120,11 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="15"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="18"/>
       <c r="M51" s="8"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
@@ -1938,11 +2138,11 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="18"/>
       <c r="N52" s="8"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
@@ -1956,11 +2156,11 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14"/>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="15"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="18"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="T53" s="10"/>
@@ -1975,11 +2175,11 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="15"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="18"/>
       <c r="Q54" s="8"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
@@ -1993,11 +2193,11 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="15"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="18"/>
       <c r="R55" s="8"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
@@ -2011,11 +2211,11 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="15"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="18"/>
       <c r="S56" s="8"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
@@ -2029,11 +2229,11 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="13" t="s">
+      <c r="G57" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="15"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="18"/>
       <c r="T57" s="8"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -2046,8 +2246,8 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -2281,8 +2481,8 @@
       <c r="Y67" s="10"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
@@ -2346,16 +2546,54 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2372,54 +2610,16 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2445,11 +2645,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -2511,13 +2711,13 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -2530,14 +2730,14 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="18"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="R4" s="10"/>
@@ -2548,16 +2748,16 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="8"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2567,14 +2767,14 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
       <c r="J6" s="8"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -2584,14 +2784,14 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
       <c r="K7" s="8"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -2601,14 +2801,14 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
       <c r="L8" s="8"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -2618,14 +2818,14 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
       <c r="L9" s="8"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -2635,14 +2835,14 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
       <c r="M10" s="8"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2657,11 +2857,11 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
       <c r="N11" s="8"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -2674,11 +2874,11 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
       <c r="O12" s="8"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -2691,11 +2891,11 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
       <c r="P13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -2705,16 +2905,16 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -2724,14 +2924,14 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -2740,14 +2940,14 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
       <c r="R16" s="10"/>
       <c r="S16" s="8"/>
       <c r="T16" s="10"/>
@@ -2756,14 +2956,14 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="8"/>
@@ -2772,14 +2972,14 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -2793,11 +2993,11 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -2812,11 +3012,11 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="4"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -2829,11 +3029,11 @@
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
       <c r="I21" s="4"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -2846,11 +3046,11 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18"/>
       <c r="I22" s="4"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -2863,11 +3063,11 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
       <c r="J23" s="8"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
@@ -2880,11 +3080,11 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
       <c r="K24" s="8"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
@@ -2897,11 +3097,11 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
       <c r="L25" s="8"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -2916,11 +3116,11 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="18"/>
       <c r="M26" s="8"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -2933,11 +3133,11 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
       <c r="N27" s="8"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -2950,11 +3150,11 @@
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
       <c r="O28" s="8"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -2969,11 +3169,11 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="18"/>
       <c r="P29" s="8"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -2986,11 +3186,11 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
@@ -3003,11 +3203,11 @@
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="18"/>
       <c r="R31" s="8"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -3021,11 +3221,11 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3040,11 +3240,11 @@
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
       <c r="I33" s="4"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -3057,11 +3257,11 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18"/>
       <c r="J34" s="8"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -3074,11 +3274,11 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="18"/>
       <c r="J35" s="8"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -3091,11 +3291,11 @@
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="18"/>
       <c r="K36" s="8"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
@@ -3108,11 +3308,11 @@
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="18"/>
       <c r="L37" s="8"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -3125,11 +3325,11 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="18"/>
       <c r="M38" s="8"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -3144,11 +3344,11 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="18"/>
       <c r="N39" s="8"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -3161,11 +3361,11 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="18"/>
       <c r="O40" s="8"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -3180,11 +3380,11 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="18"/>
       <c r="P41" s="8"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -3197,11 +3397,11 @@
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="18"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -3214,11 +3414,11 @@
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="18"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -3230,11 +3430,11 @@
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="18"/>
       <c r="R44" s="10"/>
       <c r="S44" s="8"/>
       <c r="T44" s="10"/>
@@ -3248,11 +3448,11 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="18"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="8"/>
@@ -3264,11 +3464,11 @@
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="18"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -3280,11 +3480,11 @@
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="18"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -3314,11 +3514,11 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="16" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3333,11 +3533,11 @@
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="18"/>
       <c r="I50" s="4"/>
       <c r="J50" s="8"/>
       <c r="R50" s="10"/>
@@ -3351,11 +3551,11 @@
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="18"/>
       <c r="K51" s="8"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -3368,11 +3568,11 @@
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="18"/>
       <c r="L52" s="8"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -3385,11 +3585,11 @@
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="18"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="R53" s="10"/>
@@ -3403,11 +3603,11 @@
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="18"/>
       <c r="O54" s="8"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
@@ -3420,11 +3620,11 @@
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="18"/>
       <c r="P55" s="8"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
@@ -3437,11 +3637,11 @@
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="18"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
@@ -3454,11 +3654,11 @@
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="18"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -3470,8 +3670,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
@@ -3699,17 +3899,51 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G3:G18"/>
@@ -3726,51 +3960,17 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="B14:D18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3782,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="E16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3797,11 +3997,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -3863,13 +4063,13 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -3882,14 +4082,14 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="18"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
       <c r="R4" s="10"/>
@@ -3900,16 +4100,16 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="4"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -3919,14 +4119,14 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="M6" s="8"/>
@@ -3938,14 +4138,14 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
       <c r="K7" s="2"/>
       <c r="N7" s="8"/>
       <c r="R7" s="10"/>
@@ -3956,14 +4156,14 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
       <c r="L8" s="8"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -3973,14 +4173,14 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
       <c r="L9" s="8"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -3990,14 +4190,14 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
       <c r="M10" s="8"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -4012,11 +4212,11 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
       <c r="N11" s="8"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -4029,11 +4229,11 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
       <c r="O12" s="8"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -4046,11 +4246,11 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
       <c r="P13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -4060,16 +4260,16 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -4079,14 +4279,14 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -4095,14 +4295,14 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
       <c r="R16" s="10"/>
       <c r="S16" s="8"/>
       <c r="T16" s="10"/>
@@ -4111,14 +4311,14 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="8"/>
@@ -4127,14 +4327,14 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -4148,11 +4348,11 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -4167,11 +4367,11 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="4"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -4184,11 +4384,11 @@
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
       <c r="I21" s="4"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -4201,11 +4401,11 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18"/>
       <c r="I22" s="4"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -4218,11 +4418,11 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
@@ -4237,11 +4437,11 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
       <c r="K24" s="2"/>
       <c r="M24" s="7"/>
       <c r="R24" s="10"/>
@@ -4255,11 +4455,11 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
       <c r="L25" s="8"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -4274,11 +4474,11 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="18"/>
       <c r="M26" s="8"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -4291,11 +4491,11 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
       <c r="N27" s="8"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -4308,11 +4508,11 @@
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
       <c r="O28" s="8"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -4327,11 +4527,11 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="18"/>
       <c r="P29" s="8"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -4344,11 +4544,11 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
@@ -4361,11 +4561,11 @@
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="18"/>
       <c r="R31" s="8"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -4379,11 +4579,11 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -4398,11 +4598,11 @@
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
       <c r="I33" s="4"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -4415,11 +4615,11 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18"/>
       <c r="J34" s="4"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -4432,11 +4632,11 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="18"/>
       <c r="J35" s="4"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -4449,11 +4649,11 @@
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="15"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="18"/>
       <c r="K36" s="2"/>
       <c r="L36" s="8"/>
       <c r="R36" s="10"/>
@@ -4467,11 +4667,11 @@
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="18"/>
       <c r="L37" s="8"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -4484,11 +4684,11 @@
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="18"/>
       <c r="M38" s="8"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -4503,11 +4703,11 @@
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="18"/>
       <c r="N39" s="8"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -4520,11 +4720,11 @@
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="18"/>
       <c r="O40" s="8"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -4539,11 +4739,11 @@
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="18"/>
       <c r="P41" s="8"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -4556,11 +4756,11 @@
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="18"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -4573,11 +4773,11 @@
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="18"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -4589,11 +4789,11 @@
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="18"/>
       <c r="R44" s="10"/>
       <c r="S44" s="8"/>
       <c r="T44" s="10"/>
@@ -4607,11 +4807,11 @@
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="18"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="8"/>
@@ -4623,11 +4823,11 @@
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="18"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -4639,11 +4839,11 @@
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="15"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="18"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -4673,11 +4873,11 @@
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="16" t="s">
+      <c r="F49" s="16"/>
+      <c r="G49" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -4692,11 +4892,11 @@
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="15"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="18"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="R50" s="10"/>
@@ -4710,11 +4910,11 @@
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="15"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="18"/>
       <c r="K51" s="4"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -4727,11 +4927,11 @@
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="18"/>
       <c r="L52" s="8"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -4744,11 +4944,11 @@
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="18"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="R53" s="10"/>
@@ -4762,11 +4962,11 @@
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="15"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="18"/>
       <c r="O54" s="8"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
@@ -4779,11 +4979,11 @@
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="18"/>
       <c r="P55" s="8"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
@@ -4796,11 +4996,11 @@
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="15"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="18"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
@@ -4813,11 +5013,11 @@
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="15"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="18"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -4829,8 +5029,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
@@ -5058,16 +5258,52 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G3:G18"/>
@@ -5084,56 +5320,2942 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="B49:D57"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="66" customWidth="1"/>
+    <col min="7" max="7" width="69.125" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+    </row>
+    <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
+      <c r="AA52" s="11"/>
+      <c r="AB52" s="11"/>
+      <c r="AC52" s="11"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11"/>
+      <c r="AF52" s="11"/>
+      <c r="AG52" s="11"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="11"/>
+      <c r="AF53" s="11"/>
+      <c r="AG53" s="11"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11"/>
+      <c r="AC55" s="11"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="11"/>
+      <c r="AF55" s="11"/>
+      <c r="AG55" s="11"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11"/>
+      <c r="AC56" s="11"/>
+      <c r="AD56" s="11"/>
+      <c r="AE56" s="11"/>
+      <c r="AF56" s="11"/>
+      <c r="AG56" s="11"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="11"/>
+      <c r="AB57" s="11"/>
+      <c r="AC57" s="11"/>
+      <c r="AD57" s="11"/>
+      <c r="AE57" s="11"/>
+      <c r="AF57" s="11"/>
+      <c r="AG57" s="11"/>
+    </row>
+    <row r="58" spans="1:33" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="11"/>
+      <c r="AB59" s="11"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="11"/>
+      <c r="AE59" s="11"/>
+      <c r="AF59" s="11"/>
+      <c r="AG59" s="11"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="11"/>
+      <c r="AB61" s="11"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="11"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="11"/>
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="11"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
+      <c r="Z63" s="11"/>
+      <c r="AA63" s="11"/>
+      <c r="AB63" s="11"/>
+      <c r="AC63" s="11"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="11"/>
+      <c r="AF63" s="11"/>
+      <c r="AG63" s="11"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="11"/>
+      <c r="AB64" s="11"/>
+      <c r="AC64" s="11"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="11"/>
+      <c r="AF64" s="11"/>
+      <c r="AG64" s="11"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
+      <c r="AA65" s="11"/>
+      <c r="AB65" s="11"/>
+      <c r="AC65" s="11"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="11"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="11"/>
+      <c r="AB66" s="11"/>
+      <c r="AC66" s="11"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="11"/>
+      <c r="AF66" s="11"/>
+      <c r="AG66" s="11"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
+      <c r="AA67" s="11"/>
+      <c r="AB67" s="11"/>
+      <c r="AC67" s="11"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="11"/>
+      <c r="AF67" s="11"/>
+      <c r="AG67" s="11"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="11"/>
+      <c r="AB69" s="11"/>
+      <c r="AC69" s="11"/>
+      <c r="AD69" s="11"/>
+      <c r="AE69" s="11"/>
+      <c r="AF69" s="11"/>
+      <c r="AG69" s="11"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="11"/>
+      <c r="AB70" s="11"/>
+      <c r="AC70" s="11"/>
+      <c r="AD70" s="11"/>
+      <c r="AE70" s="11"/>
+      <c r="AF70" s="11"/>
+      <c r="AG70" s="11"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="11"/>
+      <c r="AB72" s="11"/>
+      <c r="AC72" s="11"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="11"/>
+      <c r="AF72" s="11"/>
+      <c r="AG72" s="11"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11"/>
+      <c r="AA73" s="11"/>
+      <c r="AB73" s="11"/>
+      <c r="AC73" s="11"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="11"/>
+      <c r="AF73" s="11"/>
+      <c r="AG73" s="11"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="11"/>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -366,6 +366,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="M26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>研究结构，结束部分有个轮播，晚上英语课 大概早上完成</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K36" authorId="0" shapeId="0">
       <text>
         <r>
@@ -394,6 +409,21 @@
             <charset val="134"/>
           </rPr>
           <t>身体不舒服！ 效率低 大概下午搞定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>做上午的工作延误了！</t>
         </r>
       </text>
     </comment>
@@ -843,23 +873,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1158,11 +1188,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -1228,16 +1258,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="7"/>
@@ -1253,10 +1283,10 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="18"/>
       <c r="K4" s="8"/>
       <c r="T4" s="10"/>
@@ -1276,8 +1306,8 @@
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="8"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -1378,11 +1408,11 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="16" t="s">
         <v>32</v>
       </c>
@@ -1398,9 +1428,9 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="16" t="s">
         <v>33</v>
       </c>
@@ -1416,9 +1446,9 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
@@ -1434,11 +1464,11 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
@@ -1457,9 +1487,9 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="16" t="s">
         <v>38</v>
       </c>
@@ -1474,9 +1504,9 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="16" t="s">
         <v>39</v>
       </c>
@@ -1491,9 +1521,9 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="16" t="s">
         <v>40</v>
       </c>
@@ -1508,9 +1538,9 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="16" t="s">
         <v>34</v>
       </c>
@@ -1525,16 +1555,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="16"/>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="7"/>
@@ -1547,9 +1577,9 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="16" t="s">
         <v>44</v>
       </c>
@@ -1565,9 +1595,9 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="16" t="s">
         <v>45</v>
       </c>
@@ -1583,9 +1613,9 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="16" t="s">
         <v>46</v>
       </c>
@@ -1601,9 +1631,9 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="16" t="s">
         <v>47</v>
       </c>
@@ -1619,9 +1649,9 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="16" t="s">
         <v>48</v>
       </c>
@@ -1637,9 +1667,9 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="16" t="s">
         <v>49</v>
       </c>
@@ -1655,11 +1685,11 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="16" t="s">
         <v>51</v>
       </c>
@@ -1675,9 +1705,9 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1693,9 +1723,9 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="16" t="s">
         <v>53</v>
       </c>
@@ -1711,11 +1741,11 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="16" t="s">
         <v>55</v>
       </c>
@@ -1731,9 +1761,9 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="16" t="s">
         <v>56</v>
       </c>
@@ -1749,9 +1779,9 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="16" t="s">
         <v>34</v>
       </c>
@@ -1766,16 +1796,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H32" s="16"/>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="7"/>
@@ -1788,9 +1818,9 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="16" t="s">
         <v>60</v>
       </c>
@@ -1806,9 +1836,9 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="16" t="s">
         <v>61</v>
       </c>
@@ -1824,9 +1854,9 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="16" t="s">
         <v>62</v>
       </c>
@@ -1842,9 +1872,9 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="16" t="s">
         <v>63</v>
       </c>
@@ -1860,9 +1890,9 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="16" t="s">
         <v>64</v>
       </c>
@@ -1878,9 +1908,9 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="16" t="s">
         <v>34</v>
       </c>
@@ -1896,11 +1926,11 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="16" t="s">
         <v>66</v>
       </c>
@@ -1916,9 +1946,9 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="16" t="s">
         <v>34</v>
       </c>
@@ -1934,11 +1964,11 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="16" t="s">
         <v>68</v>
       </c>
@@ -1954,9 +1984,9 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="16" t="s">
         <v>69</v>
       </c>
@@ -1972,9 +2002,9 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="16" t="s">
         <v>70</v>
       </c>
@@ -1989,9 +2019,9 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="16" t="s">
         <v>34</v>
       </c>
@@ -2006,11 +2036,11 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="16" t="s">
         <v>72</v>
       </c>
@@ -2025,9 +2055,9 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="16" t="s">
         <v>73</v>
       </c>
@@ -2042,9 +2072,9 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
       <c r="G47" s="16" t="s">
         <v>74</v>
       </c>
@@ -2059,9 +2089,9 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
       <c r="G48" s="16" t="s">
         <v>34</v>
       </c>
@@ -2076,16 +2106,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="16"/>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="7"/>
@@ -2098,9 +2128,9 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="16" t="s">
         <v>77</v>
       </c>
@@ -2117,9 +2147,9 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="16" t="s">
         <v>78</v>
       </c>
@@ -2135,9 +2165,9 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
       <c r="G52" s="16" t="s">
         <v>79</v>
       </c>
@@ -2153,9 +2183,9 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="16" t="s">
         <v>80</v>
       </c>
@@ -2172,9 +2202,9 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
       <c r="G54" s="16" t="s">
         <v>81</v>
       </c>
@@ -2190,9 +2220,9 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="16" t="s">
         <v>82</v>
       </c>
@@ -2208,9 +2238,9 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="16" t="s">
         <v>83</v>
       </c>
@@ -2226,9 +2256,9 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="16" t="s">
         <v>84</v>
       </c>
@@ -2546,54 +2576,16 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D3:F10"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D39:F40"/>
+    <mergeCell ref="D29:F31"/>
+    <mergeCell ref="D41:F44"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="D19:F25"/>
+    <mergeCell ref="D32:F38"/>
+    <mergeCell ref="D26:F28"/>
+    <mergeCell ref="D11:F13"/>
+    <mergeCell ref="D14:F18"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
@@ -2610,16 +2602,54 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="G47:H47"/>
     <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D19:F25"/>
-    <mergeCell ref="D32:F38"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="D11:F13"/>
-    <mergeCell ref="D14:F18"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D41:F44"/>
-    <mergeCell ref="D45:F48"/>
-    <mergeCell ref="D49:F57"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D3:F10"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2645,11 +2675,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -2708,16 +2738,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -2733,10 +2763,10 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="18"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
@@ -2756,8 +2786,8 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="8"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2852,11 +2882,11 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
@@ -2871,9 +2901,9 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
@@ -2888,9 +2918,9 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
@@ -2905,11 +2935,11 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
@@ -2924,9 +2954,9 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
@@ -2940,9 +2970,9 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
@@ -2956,9 +2986,9 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
@@ -2972,9 +3002,9 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
@@ -2988,16 +3018,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -3009,9 +3039,9 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
@@ -3026,9 +3056,9 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
@@ -3043,9 +3073,9 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
@@ -3060,9 +3090,9 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
@@ -3077,9 +3107,9 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
@@ -3094,9 +3124,9 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
@@ -3111,11 +3141,11 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
@@ -3130,9 +3160,9 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
@@ -3147,9 +3177,9 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
@@ -3164,11 +3194,11 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
@@ -3183,9 +3213,9 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
@@ -3200,9 +3230,9 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
@@ -3216,16 +3246,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3237,9 +3267,9 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
@@ -3254,9 +3284,9 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
@@ -3271,9 +3301,9 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
@@ -3288,9 +3318,9 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
@@ -3305,9 +3335,9 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
@@ -3322,9 +3352,9 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
@@ -3339,11 +3369,11 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
@@ -3358,9 +3388,9 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
@@ -3375,11 +3405,11 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
@@ -3394,9 +3424,9 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
@@ -3411,9 +3441,9 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
@@ -3427,9 +3457,9 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
@@ -3443,11 +3473,11 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
@@ -3461,9 +3491,9 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
@@ -3477,9 +3507,9 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
@@ -3493,9 +3523,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3509,16 +3539,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3530,9 +3560,9 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
@@ -3548,9 +3578,9 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
@@ -3565,9 +3595,9 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
@@ -3582,9 +3612,9 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
@@ -3600,9 +3630,9 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
@@ -3617,9 +3647,9 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
@@ -3634,9 +3664,9 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
@@ -3651,9 +3681,9 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
@@ -3899,51 +3929,17 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D44"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G3:G18"/>
@@ -3960,17 +3956,51 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3997,11 +4027,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -4060,16 +4090,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -4085,10 +4115,10 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="18"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
@@ -4108,8 +4138,8 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="4"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -4207,11 +4237,11 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
@@ -4226,9 +4256,9 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
@@ -4243,9 +4273,9 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
@@ -4260,11 +4290,11 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
@@ -4279,9 +4309,9 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
@@ -4295,9 +4325,9 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
@@ -4311,9 +4341,9 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
@@ -4327,9 +4357,9 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
@@ -4343,16 +4373,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -4364,9 +4394,9 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
@@ -4381,9 +4411,9 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
@@ -4398,9 +4428,9 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
@@ -4415,9 +4445,9 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
@@ -4434,9 +4464,9 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
@@ -4452,9 +4482,9 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
@@ -4469,11 +4499,11 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
@@ -4488,9 +4518,9 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
@@ -4505,9 +4535,9 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
@@ -4522,11 +4552,11 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
@@ -4541,9 +4571,9 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
@@ -4558,9 +4588,9 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
@@ -4574,16 +4604,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -4595,9 +4625,9 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
@@ -4612,9 +4642,9 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
@@ -4629,9 +4659,9 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
@@ -4646,9 +4676,9 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
@@ -4664,9 +4694,9 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
@@ -4681,9 +4711,9 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
@@ -4698,11 +4728,11 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
@@ -4717,9 +4747,9 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
@@ -4734,11 +4764,11 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
@@ -4753,9 +4783,9 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
@@ -4770,9 +4800,9 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
@@ -4786,9 +4816,9 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
@@ -4802,11 +4832,11 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
@@ -4820,9 +4850,9 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
@@ -4836,9 +4866,9 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
@@ -4852,9 +4882,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -4868,16 +4898,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -4889,9 +4919,9 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
@@ -4907,9 +4937,9 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
@@ -4924,9 +4954,9 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
@@ -4941,9 +4971,9 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
@@ -4959,9 +4989,9 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
@@ -4976,9 +5006,9 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
@@ -4993,9 +5023,9 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
@@ -5010,9 +5040,9 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
@@ -5258,52 +5288,16 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B3:D10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B29:D31"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="G3:G18"/>
@@ -5320,16 +5314,52 @@
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5342,8 +5372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5357,11 +5387,11 @@
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11" t="s">
@@ -5465,16 +5495,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -5509,10 +5539,10 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="18"/>
       <c r="H4" s="11"/>
       <c r="I4" s="2"/>
@@ -5551,8 +5581,8 @@
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -5765,11 +5795,11 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
         <v>32</v>
       </c>
@@ -5804,9 +5834,9 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="16" t="s">
         <v>33</v>
       </c>
@@ -5841,9 +5871,9 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="16" t="s">
         <v>34</v>
       </c>
@@ -5878,11 +5908,11 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="16" t="s">
         <v>36</v>
       </c>
@@ -5917,9 +5947,9 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="16" t="s">
         <v>38</v>
       </c>
@@ -5954,9 +5984,9 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="16" t="s">
         <v>39</v>
       </c>
@@ -5991,9 +6021,9 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="16" t="s">
         <v>40</v>
       </c>
@@ -6028,9 +6058,9 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="16" t="s">
         <v>34</v>
       </c>
@@ -6065,16 +6095,16 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -6106,9 +6136,9 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="16" t="s">
         <v>44</v>
       </c>
@@ -6143,9 +6173,9 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="16" t="s">
         <v>45</v>
       </c>
@@ -6180,9 +6210,9 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="16" t="s">
         <v>46</v>
       </c>
@@ -6217,9 +6247,9 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="16" t="s">
         <v>47</v>
       </c>
@@ -6254,9 +6284,9 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
         <v>48</v>
       </c>
@@ -6291,9 +6321,9 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
         <v>49</v>
       </c>
@@ -6328,11 +6358,11 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="16" t="s">
         <v>51</v>
       </c>
@@ -6343,7 +6373,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="8"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -6367,9 +6397,9 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="16" t="s">
         <v>52</v>
       </c>
@@ -6404,9 +6434,9 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="16" t="s">
         <v>53</v>
       </c>
@@ -6441,11 +6471,11 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>55</v>
       </c>
@@ -6480,9 +6510,9 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
@@ -6517,9 +6547,9 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="16" t="s">
         <v>34</v>
       </c>
@@ -6554,16 +6584,16 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F32" s="16"/>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -6595,9 +6625,9 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="16" t="s">
         <v>60</v>
       </c>
@@ -6632,9 +6662,9 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="16" t="s">
         <v>61</v>
       </c>
@@ -6669,9 +6699,9 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="16" t="s">
         <v>62</v>
       </c>
@@ -6706,9 +6736,9 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="16" t="s">
         <v>63</v>
       </c>
@@ -6743,9 +6773,9 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
         <v>64</v>
       </c>
@@ -6756,7 +6786,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="11"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
@@ -6780,9 +6810,9 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
       <c r="E38" s="16" t="s">
         <v>34</v>
       </c>
@@ -6793,7 +6823,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="8"/>
+      <c r="M38" s="2"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
@@ -6817,11 +6847,11 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
       <c r="E39" s="16" t="s">
         <v>66</v>
       </c>
@@ -6856,9 +6886,9 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="16" t="s">
         <v>34</v>
       </c>
@@ -6893,11 +6923,11 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
@@ -6932,9 +6962,9 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="16" t="s">
         <v>69</v>
       </c>
@@ -6969,9 +6999,9 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
@@ -7006,9 +7036,9 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="16" t="s">
         <v>34</v>
       </c>
@@ -7043,11 +7073,11 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="16" t="s">
         <v>72</v>
       </c>
@@ -7082,9 +7112,9 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="16" t="s">
         <v>73</v>
       </c>
@@ -7119,9 +7149,9 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
       <c r="E47" s="16" t="s">
         <v>74</v>
       </c>
@@ -7156,9 +7186,9 @@
     </row>
     <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -7193,16 +7223,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F49" s="16"/>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="19" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -7234,9 +7264,9 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
       <c r="E50" s="16" t="s">
         <v>77</v>
       </c>
@@ -7271,9 +7301,9 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
       <c r="E51" s="16" t="s">
         <v>78</v>
       </c>
@@ -7308,9 +7338,9 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
       <c r="E52" s="16" t="s">
         <v>79</v>
       </c>
@@ -7345,9 +7375,9 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="16" t="s">
         <v>80</v>
       </c>
@@ -7358,7 +7388,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="8"/>
+      <c r="M53" s="4"/>
       <c r="N53" s="8"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -7382,9 +7412,9 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
       <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
@@ -7419,9 +7449,9 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
       <c r="E55" s="16" t="s">
         <v>82</v>
       </c>
@@ -7456,9 +7486,9 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
       <c r="E56" s="16" t="s">
         <v>83</v>
       </c>
@@ -7493,9 +7523,9 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
       <c r="E57" s="16" t="s">
         <v>84</v>
       </c>
@@ -8180,67 +8210,6 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G49:G57"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B49:D57"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B41:D44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B32:D38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:G47"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:D40"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B29:D31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B19:D25"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:G31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:D28"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:D10"/>
@@ -8252,6 +8221,67 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="计划完成节点" sheetId="1" r:id="rId1"/>
     <sheet name="1.08进度表" sheetId="2" r:id="rId2"/>
     <sheet name="1.09进度表" sheetId="3" r:id="rId3"/>
     <sheet name="1.10进度表" sheetId="4" r:id="rId4"/>
+    <sheet name="1.11进度表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -431,8 +432,286 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码较难 有技术问题需要研究
+ 大概1/08下午能完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">上面代码延误 这部分晚自习完成
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码延误，轮播图效果较多，这部分暂时未做</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基础代码完成  
+   特效延误</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>延迟</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以上代码灵感乍现，导致这个区块延迟~~</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">技术难点暂时跳过 ！
+   先完成后面两个较为简单的
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术问题 仍在制作首页</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术问题 仍在制作首页</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术问题 仍在制作首页</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">结构理不清楚，蒙圈状态，下午调整
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码不会敲，思路乱  延后在做</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码延误 正在做 ！！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>研究结构，结束部分有个轮播，晚上英语课 大概早上完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">图片动图的嵌套有点蒙，卡了半天，晚上完成
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>身体不舒服！ 效率低 大概下午搞定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>做上午的工作延误了！</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="95">
   <si>
     <t>组名</t>
   </si>
@@ -840,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,6 +1152,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,11 +1475,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -1258,16 +1545,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="7"/>
@@ -1280,14 +1567,14 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="22"/>
       <c r="K4" s="8"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
@@ -1298,16 +1585,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="8"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -1318,14 +1605,14 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="22"/>
       <c r="L6" s="8"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -1336,14 +1623,14 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
       <c r="M7" s="8"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -1354,14 +1641,14 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="22"/>
       <c r="N8" s="8"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -1372,14 +1659,14 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="22"/>
       <c r="N9" s="8"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -1390,14 +1677,14 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="22"/>
       <c r="O10" s="8"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -1408,16 +1695,16 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="22"/>
       <c r="P11" s="8"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -1428,14 +1715,14 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="16" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="22"/>
       <c r="Q12" s="8"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
@@ -1446,14 +1733,14 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="16" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
       <c r="R13" s="8"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -1464,16 +1751,16 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="18"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="22"/>
       <c r="S14" s="8"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
@@ -1487,14 +1774,14 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="16" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="22"/>
       <c r="T15" s="8"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -1504,14 +1791,14 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="16" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="22"/>
       <c r="T16" s="10"/>
       <c r="U16" s="8"/>
       <c r="V16" s="10"/>
@@ -1521,14 +1808,14 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="16" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="18"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="22"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="8"/>
@@ -1538,14 +1825,14 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="16" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="18"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="22"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -1555,16 +1842,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="23" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="7"/>
@@ -1577,14 +1864,14 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="18"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="7"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
@@ -1595,14 +1882,14 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="18"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22"/>
       <c r="K21" s="8"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -1613,14 +1900,14 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="18"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="22"/>
       <c r="K22" s="8"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -1631,14 +1918,14 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="22"/>
       <c r="L23" s="8"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -1649,14 +1936,14 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="22"/>
       <c r="M24" s="8"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
@@ -1667,14 +1954,14 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="18"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="22"/>
       <c r="N25" s="8"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -1685,16 +1972,16 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="16" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="22"/>
       <c r="O26" s="8"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
@@ -1705,14 +1992,14 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="18"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="22"/>
       <c r="P27" s="8"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
@@ -1723,14 +2010,14 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="16" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="18"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="22"/>
       <c r="Q28" s="8"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
@@ -1741,16 +2028,16 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="16" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="18"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="22"/>
       <c r="R29" s="8"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
@@ -1761,14 +2048,14 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="16" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="18"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="22"/>
       <c r="S30" s="8"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
@@ -1779,14 +2066,14 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="16" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="22"/>
       <c r="T31" s="8"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -1796,16 +2083,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="16" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="19" t="s">
+      <c r="H32" s="20"/>
+      <c r="I32" s="23" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="7"/>
@@ -1818,14 +2105,14 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="16" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="18"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="22"/>
       <c r="K33" s="8"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
@@ -1836,14 +2123,14 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="16" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="18"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="22"/>
       <c r="L34" s="8"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
@@ -1854,14 +2141,14 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="16" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="18"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="22"/>
       <c r="L35" s="8"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -1872,14 +2159,14 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="16" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="18"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="22"/>
       <c r="M36" s="8"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
@@ -1890,14 +2177,14 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="18"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="22"/>
       <c r="N37" s="8"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -1908,14 +2195,14 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="16" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="18"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="22"/>
       <c r="O38" s="8"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
@@ -1926,16 +2213,16 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="16" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="18"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="22"/>
       <c r="P39" s="8"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -1946,14 +2233,14 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="16" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="16"/>
-      <c r="I40" s="18"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="22"/>
       <c r="Q40" s="8"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
@@ -1964,16 +2251,16 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="16" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="18"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="22"/>
       <c r="R41" s="8"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
@@ -1984,14 +2271,14 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="16" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="18"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="22"/>
       <c r="S42" s="8"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
@@ -2002,14 +2289,14 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="16" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="18"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="22"/>
       <c r="T43" s="8"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -2019,14 +2306,14 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="16" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="18"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="22"/>
       <c r="T44" s="10"/>
       <c r="U44" s="8"/>
       <c r="V44" s="10"/>
@@ -2036,16 +2323,16 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="16" t="s">
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="18"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="22"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="8"/>
@@ -2055,14 +2342,14 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="16" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="18"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="22"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
@@ -2072,14 +2359,14 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="16" t="s">
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="18"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="22"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -2089,13 +2376,13 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="16" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="1"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
@@ -2106,16 +2393,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="16" t="s">
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="16"/>
-      <c r="I49" s="19" t="s">
+      <c r="H49" s="20"/>
+      <c r="I49" s="23" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="7"/>
@@ -2128,14 +2415,14 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="16" t="s">
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="18"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="22"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="T50" s="10"/>
@@ -2147,14 +2434,14 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="16" t="s">
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="16"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="22"/>
       <c r="M51" s="8"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
@@ -2165,14 +2452,14 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="16" t="s">
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="18"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="22"/>
       <c r="N52" s="8"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
@@ -2183,14 +2470,14 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="16" t="s">
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="18"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="22"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="T53" s="10"/>
@@ -2202,14 +2489,14 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="16" t="s">
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="18"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="22"/>
       <c r="Q54" s="8"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
@@ -2220,14 +2507,14 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="16" t="s">
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="18"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="22"/>
       <c r="R55" s="8"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
@@ -2238,14 +2525,14 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="16" t="s">
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="18"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="22"/>
       <c r="S56" s="8"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
@@ -2256,14 +2543,14 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="16" t="s">
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="18"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="22"/>
       <c r="T57" s="8"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -2276,8 +2563,8 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -2511,8 +2798,8 @@
       <c r="Y67" s="10"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
@@ -2675,11 +2962,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -2738,16 +3025,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -2760,14 +3047,14 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="R4" s="10"/>
@@ -2778,16 +3065,16 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="8"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -2797,14 +3084,14 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
       <c r="J6" s="8"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -2814,14 +3101,14 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
       <c r="K7" s="8"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -2831,14 +3118,14 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
       <c r="L8" s="8"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -2848,14 +3135,14 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
       <c r="L9" s="8"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -2865,14 +3152,14 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
       <c r="M10" s="8"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -2882,16 +3169,16 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
       <c r="N11" s="8"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -2901,14 +3188,14 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22"/>
       <c r="O12" s="8"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -2918,14 +3205,14 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
       <c r="P13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -2935,16 +3222,16 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -2954,14 +3241,14 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -2970,14 +3257,14 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
       <c r="R16" s="10"/>
       <c r="S16" s="8"/>
       <c r="T16" s="10"/>
@@ -2986,14 +3273,14 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="8"/>
@@ -3002,14 +3289,14 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -3018,16 +3305,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -3039,14 +3326,14 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="4"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -3056,14 +3343,14 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
       <c r="I21" s="4"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -3073,14 +3360,14 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
       <c r="I22" s="4"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -3090,14 +3377,14 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
       <c r="J23" s="8"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
@@ -3107,14 +3394,14 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
       <c r="K24" s="8"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
@@ -3124,14 +3411,14 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
       <c r="L25" s="8"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -3141,16 +3428,16 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
       <c r="M26" s="8"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -3160,14 +3447,14 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
       <c r="N27" s="8"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -3177,14 +3464,14 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
       <c r="O28" s="8"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -3194,16 +3481,16 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
       <c r="P29" s="8"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -3213,14 +3500,14 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
@@ -3230,14 +3517,14 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
       <c r="R31" s="8"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -3246,16 +3533,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="19" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3267,14 +3554,14 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
       <c r="I33" s="4"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -3284,14 +3571,14 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
       <c r="J34" s="8"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -3301,14 +3588,14 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
       <c r="J35" s="8"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -3318,14 +3605,14 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="22"/>
       <c r="K36" s="8"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
@@ -3335,14 +3622,14 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="22"/>
       <c r="L37" s="8"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -3352,14 +3639,14 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="22"/>
       <c r="M38" s="8"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -3369,16 +3656,16 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22"/>
       <c r="N39" s="8"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -3388,14 +3675,14 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
       <c r="O40" s="8"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -3405,16 +3692,16 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
       <c r="P41" s="8"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -3424,14 +3711,14 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="16" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -3441,14 +3728,14 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -3457,14 +3744,14 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22"/>
       <c r="R44" s="10"/>
       <c r="S44" s="8"/>
       <c r="T44" s="10"/>
@@ -3473,16 +3760,16 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="8"/>
@@ -3491,14 +3778,14 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -3507,14 +3794,14 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="16" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -3523,9 +3810,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3539,16 +3826,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="19" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3560,14 +3847,14 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="22"/>
       <c r="I50" s="4"/>
       <c r="J50" s="8"/>
       <c r="R50" s="10"/>
@@ -3578,14 +3865,14 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="18"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="22"/>
       <c r="K51" s="8"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -3595,14 +3882,14 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="22"/>
       <c r="L52" s="8"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -3612,14 +3899,14 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="16" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="22"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="R53" s="10"/>
@@ -3630,14 +3917,14 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="16" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="22"/>
       <c r="O54" s="8"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
@@ -3647,14 +3934,14 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="16" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
       <c r="P55" s="8"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
@@ -3664,14 +3951,14 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="16" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="18"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
@@ -3681,14 +3968,14 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="16" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -3700,8 +3987,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
@@ -4027,11 +4314,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -4090,16 +4377,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -4112,14 +4399,14 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
       <c r="R4" s="10"/>
@@ -4130,16 +4417,16 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="4"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -4149,14 +4436,14 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="M6" s="8"/>
@@ -4168,14 +4455,14 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
       <c r="K7" s="2"/>
       <c r="N7" s="8"/>
       <c r="R7" s="10"/>
@@ -4186,14 +4473,14 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
       <c r="L8" s="8"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -4203,14 +4490,14 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
       <c r="L9" s="8"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -4220,14 +4507,14 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
       <c r="M10" s="8"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -4237,16 +4524,16 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
       <c r="N11" s="8"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -4256,14 +4543,14 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22"/>
       <c r="O12" s="8"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -4273,14 +4560,14 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
       <c r="P13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -4290,16 +4577,16 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -4309,14 +4596,14 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -4325,14 +4612,14 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
       <c r="R16" s="10"/>
       <c r="S16" s="8"/>
       <c r="T16" s="10"/>
@@ -4341,14 +4628,14 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="8"/>
@@ -4357,14 +4644,14 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -4373,16 +4660,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -4394,14 +4681,14 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="4"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -4411,14 +4698,14 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
       <c r="I21" s="4"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -4428,14 +4715,14 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
       <c r="I22" s="4"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -4445,14 +4732,14 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
@@ -4464,14 +4751,14 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
       <c r="K24" s="2"/>
       <c r="M24" s="7"/>
       <c r="R24" s="10"/>
@@ -4482,14 +4769,14 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
       <c r="L25" s="8"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -4499,16 +4786,16 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
       <c r="M26" s="8"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -4518,14 +4805,14 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
       <c r="N27" s="8"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -4535,14 +4822,14 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
       <c r="O28" s="8"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -4552,16 +4839,16 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
       <c r="P29" s="8"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -4571,14 +4858,14 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
@@ -4588,14 +4875,14 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
       <c r="R31" s="8"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -4604,16 +4891,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="19" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -4625,14 +4912,14 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
       <c r="I33" s="4"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -4642,14 +4929,14 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
       <c r="J34" s="4"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -4659,14 +4946,14 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
       <c r="J35" s="4"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -4676,14 +4963,14 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="22"/>
       <c r="K36" s="2"/>
       <c r="L36" s="8"/>
       <c r="R36" s="10"/>
@@ -4694,14 +4981,14 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="22"/>
       <c r="L37" s="8"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -4711,14 +4998,14 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="22"/>
       <c r="M38" s="8"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -4728,16 +5015,16 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22"/>
       <c r="N39" s="8"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -4747,14 +5034,14 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
       <c r="O40" s="8"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -4764,16 +5051,16 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
       <c r="P41" s="8"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -4783,14 +5070,14 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="16" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -4800,14 +5087,14 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -4816,14 +5103,14 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22"/>
       <c r="R44" s="10"/>
       <c r="S44" s="8"/>
       <c r="T44" s="10"/>
@@ -4832,16 +5119,16 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="8"/>
@@ -4850,14 +5137,14 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -4866,14 +5153,14 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="16" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -4882,9 +5169,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -4898,16 +5185,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="19" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -4919,14 +5206,14 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="22"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="R50" s="10"/>
@@ -4937,14 +5224,14 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="18"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="22"/>
       <c r="K51" s="4"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -4954,14 +5241,14 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="22"/>
       <c r="L52" s="8"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -4971,14 +5258,14 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="16" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="22"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="R53" s="10"/>
@@ -4989,14 +5276,14 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="16" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="22"/>
       <c r="O54" s="8"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
@@ -5006,14 +5293,14 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="16" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
       <c r="P55" s="8"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
@@ -5023,14 +5310,14 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="16" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="18"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
@@ -5040,14 +5327,14 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="16" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -5059,8 +5346,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
@@ -5372,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5387,11 +5674,11 @@
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11" t="s">
@@ -5495,16 +5782,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -5536,14 +5823,14 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="11"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
@@ -5573,16 +5860,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -5610,14 +5897,14 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="2"/>
@@ -5647,14 +5934,14 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -5684,14 +5971,14 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -5721,14 +6008,14 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -5758,14 +6045,14 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -5795,16 +6082,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5834,14 +6121,14 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -5871,14 +6158,14 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -5908,16 +6195,16 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -5947,14 +6234,14 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="16" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -5984,14 +6271,14 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -6021,14 +6308,14 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -6058,14 +6345,14 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -6095,16 +6382,16 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -6136,14 +6423,14 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="4"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -6173,14 +6460,14 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="11"/>
       <c r="I21" s="4"/>
       <c r="J21" s="11"/>
@@ -6210,14 +6497,14 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="11"/>
       <c r="I22" s="4"/>
       <c r="J22" s="11"/>
@@ -6247,14 +6534,14 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="16" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="2"/>
@@ -6284,14 +6571,14 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="18"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -6321,14 +6608,14 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -6358,16 +6645,16 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -6397,14 +6684,14 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -6434,14 +6721,14 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -6471,16 +6758,16 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="16" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -6510,14 +6797,14 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -6547,14 +6834,14 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="16" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -6584,16 +6871,16 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="16" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="19" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="23" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -6625,14 +6912,14 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="11"/>
       <c r="I33" s="4"/>
       <c r="J33" s="11"/>
@@ -6662,14 +6949,14 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="16" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="4"/>
@@ -6699,14 +6986,14 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="16" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="18"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
@@ -6736,14 +7023,14 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="16" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -6773,14 +7060,14 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="16" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -6810,14 +7097,14 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -6847,16 +7134,16 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -6886,14 +7173,14 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -6923,16 +7210,16 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="16" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -6962,14 +7249,14 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="16" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="18"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -6999,14 +7286,14 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="16" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
@@ -7036,14 +7323,14 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16" t="s">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="18"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -7073,16 +7360,16 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -7112,14 +7399,14 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="16" t="s">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="18"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -7149,14 +7436,14 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="16" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="18"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -7186,9 +7473,9 @@
     </row>
     <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -7223,16 +7510,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="16" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="19" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="23" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -7264,14 +7551,14 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="16" t="s">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="18"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="11"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -7301,14 +7588,14 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="16" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="18"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -7338,14 +7625,14 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="18"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -7375,14 +7662,14 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="16" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="22"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
@@ -7412,14 +7699,14 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="16" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="18"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -7449,14 +7736,14 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="16" t="s">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="18"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -7486,14 +7773,14 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="16" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="18"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -7523,14 +7810,14 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="16" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="18"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -7563,8 +7850,8 @@
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -8207,6 +8494,2052 @@
       <c r="AE75" s="11"/>
       <c r="AF75" s="11"/>
       <c r="AG75" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="59.5" customWidth="1"/>
+    <col min="7" max="7" width="63.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="10"/>
+    </row>
+    <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="8"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="20"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+    </row>
+    <row r="58" spans="1:23" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="14"/>
+      <c r="S68" s="14"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="14"/>
+      <c r="W68" s="14"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="14"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="14"/>
+      <c r="W69" s="14"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="72">

--- a/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
+++ b/01效果图 以及 网址  自取/舒榆衡组-阿里云-进度表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="计划完成节点" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="1.09进度表" sheetId="3" r:id="rId3"/>
     <sheet name="1.10进度表" sheetId="4" r:id="rId4"/>
     <sheet name="1.11进度表" sheetId="5" r:id="rId5"/>
+    <sheet name="1.12进度表" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -710,8 +711,286 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码较难 有技术问题需要研究
+ 大概1/08下午能完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">上面代码延误 这部分晚自习完成
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码延误，轮播图效果较多，这部分暂时未做</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>基础代码完成  
+   特效延误</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>延迟</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>以上代码灵感乍现，导致这个区块延迟~~</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">技术难点暂时跳过 ！
+   先完成后面两个较为简单的
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术问题 仍在制作首页</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术问题 仍在制作首页</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>技术问题 仍在制作首页</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">结构理不清楚，蒙圈状态，下午调整
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码不会敲，思路乱  延后在做</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>代码延误 正在做 ！！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>研究结构，结束部分有个轮播，晚上英语课 大概早上完成</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">图片动图的嵌套有点蒙，卡了半天，晚上完成
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>身体不舒服！ 效率低 大概下午搞定</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="16"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>做上午的工作延误了！</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="95">
   <si>
     <t>组名</t>
   </si>
@@ -1119,7 +1398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,6 +1439,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1475,11 +1761,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="I1" t="s">
         <v>4</v>
       </c>
@@ -1545,16 +1831,16 @@
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="23" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="7"/>
@@ -1567,14 +1853,14 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="19" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="8"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
@@ -1585,16 +1871,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="8"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
@@ -1605,14 +1891,14 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="25"/>
       <c r="L6" s="8"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
@@ -1623,14 +1909,14 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="20" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="25"/>
       <c r="M7" s="8"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
@@ -1641,14 +1927,14 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="20" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="25"/>
       <c r="N8" s="8"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
@@ -1659,14 +1945,14 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="20" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="25"/>
       <c r="N9" s="8"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
@@ -1677,14 +1963,14 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="20" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="25"/>
       <c r="O10" s="8"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
@@ -1695,16 +1981,16 @@
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="25"/>
       <c r="P11" s="8"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
@@ -1715,14 +2001,14 @@
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="25"/>
       <c r="Q12" s="8"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
@@ -1733,14 +2019,14 @@
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="25"/>
       <c r="R13" s="8"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
@@ -1751,16 +2037,16 @@
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="20" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25"/>
       <c r="S14" s="8"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
@@ -1774,14 +2060,14 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25"/>
       <c r="T15" s="8"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -1791,14 +2077,14 @@
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="20" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="25"/>
       <c r="T16" s="10"/>
       <c r="U16" s="8"/>
       <c r="V16" s="10"/>
@@ -1808,14 +2094,14 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="20" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="8"/>
@@ -1825,14 +2111,14 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="20" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
@@ -1842,16 +2128,16 @@
     </row>
     <row r="19" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="23" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="7"/>
@@ -1864,14 +2150,14 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="7"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
@@ -1882,14 +2168,14 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="22"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="25"/>
       <c r="K21" s="8"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
@@ -1900,14 +2186,14 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="25"/>
       <c r="K22" s="8"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -1918,14 +2204,14 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="25"/>
       <c r="L23" s="8"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -1936,14 +2222,14 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="25"/>
       <c r="M24" s="8"/>
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
@@ -1954,14 +2240,14 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="25"/>
       <c r="N25" s="8"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
@@ -1972,16 +2258,16 @@
     </row>
     <row r="26" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="25"/>
       <c r="O26" s="8"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
@@ -1992,14 +2278,14 @@
     </row>
     <row r="27" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="25"/>
       <c r="P27" s="8"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
@@ -2010,14 +2296,14 @@
     </row>
     <row r="28" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="25"/>
       <c r="Q28" s="8"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
@@ -2028,16 +2314,16 @@
     </row>
     <row r="29" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="25"/>
       <c r="R29" s="8"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
@@ -2048,14 +2334,14 @@
     </row>
     <row r="30" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="25"/>
       <c r="S30" s="8"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
@@ -2066,14 +2352,14 @@
     </row>
     <row r="31" spans="2:25" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="22"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="25"/>
       <c r="T31" s="8"/>
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
@@ -2083,16 +2369,16 @@
     </row>
     <row r="32" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="23" t="s">
+      <c r="H32" s="23"/>
+      <c r="I32" s="26" t="s">
         <v>59</v>
       </c>
       <c r="J32" s="7"/>
@@ -2105,14 +2391,14 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="20" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="25"/>
       <c r="K33" s="8"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
@@ -2123,14 +2409,14 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="20" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="25"/>
       <c r="L34" s="8"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
@@ -2141,14 +2427,14 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="20" t="s">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="25"/>
       <c r="L35" s="8"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
@@ -2159,14 +2445,14 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="20" t="s">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="22"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="25"/>
       <c r="M36" s="8"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
@@ -2177,14 +2463,14 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="20" t="s">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="22"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25"/>
       <c r="N37" s="8"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -2195,14 +2481,14 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="20" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="25"/>
       <c r="O38" s="8"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
@@ -2213,16 +2499,16 @@
     </row>
     <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="20" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="22"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="25"/>
       <c r="P39" s="8"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -2233,14 +2519,14 @@
     </row>
     <row r="40" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="20" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="25"/>
       <c r="Q40" s="8"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
@@ -2251,16 +2537,16 @@
     </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="20" t="s">
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="25"/>
       <c r="R41" s="8"/>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
@@ -2271,14 +2557,14 @@
     </row>
     <row r="42" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="22"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="25"/>
       <c r="S42" s="8"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
@@ -2289,14 +2575,14 @@
     </row>
     <row r="43" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="22"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="25"/>
       <c r="T43" s="8"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
@@ -2306,14 +2592,14 @@
     </row>
     <row r="44" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="22"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="25"/>
       <c r="T44" s="10"/>
       <c r="U44" s="8"/>
       <c r="V44" s="10"/>
@@ -2323,16 +2609,16 @@
     </row>
     <row r="45" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
-      <c r="D45" s="21" t="s">
+      <c r="D45" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="20" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="25"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
       <c r="V45" s="8"/>
@@ -2342,14 +2628,14 @@
     </row>
     <row r="46" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="20" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="25"/>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
@@ -2359,14 +2645,14 @@
     </row>
     <row r="47" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="20" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="25"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
@@ -2376,13 +2662,13 @@
     </row>
     <row r="48" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="20" t="s">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="1"/>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
@@ -2393,16 +2679,16 @@
     </row>
     <row r="49" spans="2:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
-      <c r="D49" s="21" t="s">
+      <c r="D49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="20" t="s">
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="20"/>
-      <c r="I49" s="23" t="s">
+      <c r="H49" s="23"/>
+      <c r="I49" s="26" t="s">
         <v>19</v>
       </c>
       <c r="J49" s="7"/>
@@ -2415,14 +2701,14 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="20" t="s">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="22"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="25"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="T50" s="10"/>
@@ -2434,14 +2720,14 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="22"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="25"/>
       <c r="M51" s="8"/>
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
@@ -2452,14 +2738,14 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="22"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="25"/>
       <c r="N52" s="8"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
@@ -2470,14 +2756,14 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="20" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="22"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="25"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
       <c r="T53" s="10"/>
@@ -2489,14 +2775,14 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="20" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="25"/>
       <c r="Q54" s="8"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
@@ -2507,14 +2793,14 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="20" t="s">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="H55" s="20"/>
-      <c r="I55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="25"/>
       <c r="R55" s="8"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
@@ -2525,14 +2811,14 @@
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="20" t="s">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="25"/>
       <c r="S56" s="8"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10"/>
@@ -2543,14 +2829,14 @@
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="20" t="s">
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="22"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="25"/>
       <c r="T57" s="8"/>
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
@@ -2563,8 +2849,8 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
@@ -2798,8 +3084,8 @@
       <c r="Y67" s="10"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
       <c r="T68" s="10"/>
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
@@ -2962,11 +3248,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -3025,16 +3311,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -3047,14 +3333,14 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
       <c r="R4" s="10"/>
@@ -3065,16 +3351,16 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="8"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -3084,14 +3370,14 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
       <c r="J6" s="8"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
@@ -3101,14 +3387,14 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25"/>
       <c r="K7" s="8"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
@@ -3118,14 +3404,14 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="L8" s="8"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -3135,14 +3421,14 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
       <c r="L9" s="8"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -3152,14 +3438,14 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
       <c r="M10" s="8"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -3169,16 +3455,16 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25"/>
       <c r="N11" s="8"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -3188,14 +3474,14 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="25"/>
       <c r="O12" s="8"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -3205,14 +3491,14 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
       <c r="P13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -3222,16 +3508,16 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="25"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -3241,14 +3527,14 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="25"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -3257,14 +3543,14 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25"/>
       <c r="R16" s="10"/>
       <c r="S16" s="8"/>
       <c r="T16" s="10"/>
@@ -3273,14 +3559,14 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="8"/>
@@ -3289,14 +3575,14 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -3305,16 +3591,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -3326,14 +3612,14 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="4"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -3343,14 +3629,14 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="4"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -3360,14 +3646,14 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="4"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -3377,14 +3663,14 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
       <c r="J23" s="8"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
@@ -3394,14 +3680,14 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
       <c r="K24" s="8"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
@@ -3411,14 +3697,14 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
       <c r="L25" s="8"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -3428,16 +3714,16 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="25"/>
       <c r="M26" s="8"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -3447,14 +3733,14 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="25"/>
       <c r="N27" s="8"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -3464,14 +3750,14 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25"/>
       <c r="O28" s="8"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -3481,16 +3767,16 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="25"/>
       <c r="P29" s="8"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -3500,14 +3786,14 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="25"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
@@ -3517,14 +3803,14 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="25"/>
       <c r="R31" s="8"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -3533,16 +3819,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -3554,14 +3840,14 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="25"/>
       <c r="I33" s="4"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -3571,14 +3857,14 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25"/>
       <c r="J34" s="8"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -3588,14 +3874,14 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
       <c r="J35" s="8"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -3605,14 +3891,14 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="25"/>
       <c r="K36" s="8"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
@@ -3622,14 +3908,14 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
       <c r="L37" s="8"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -3639,14 +3925,14 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="25"/>
       <c r="M38" s="8"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -3656,16 +3942,16 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
       <c r="N39" s="8"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -3675,14 +3961,14 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
       <c r="O40" s="8"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -3692,16 +3978,16 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
       <c r="P41" s="8"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -3711,14 +3997,14 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="25"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -3728,14 +4014,14 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="25"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -3744,14 +4030,14 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="25"/>
       <c r="R44" s="10"/>
       <c r="S44" s="8"/>
       <c r="T44" s="10"/>
@@ -3760,16 +4046,16 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="20" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="25"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="8"/>
@@ -3778,14 +4064,14 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="25"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -3794,14 +4080,14 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="25"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -3810,9 +4096,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -3826,16 +4112,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="20" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="23" t="s">
+      <c r="F49" s="23"/>
+      <c r="G49" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -3847,14 +4133,14 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="20" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="25"/>
       <c r="I50" s="4"/>
       <c r="J50" s="8"/>
       <c r="R50" s="10"/>
@@ -3865,14 +4151,14 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="25"/>
       <c r="K51" s="8"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -3882,14 +4168,14 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="25"/>
       <c r="L52" s="8"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -3899,14 +4185,14 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="20" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="25"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="R53" s="10"/>
@@ -3917,14 +4203,14 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="25"/>
       <c r="O54" s="8"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
@@ -3934,14 +4220,14 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="25"/>
       <c r="P55" s="8"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
@@ -3951,14 +4237,14 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="25"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
@@ -3968,14 +4254,14 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="25"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -3987,8 +4273,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
@@ -4314,11 +4600,11 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="G1" t="s">
         <v>4</v>
       </c>
@@ -4377,16 +4663,16 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -4399,14 +4685,14 @@
       <c r="W3" s="10"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
       <c r="R4" s="10"/>
@@ -4417,16 +4703,16 @@
       <c r="W4" s="10"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="4"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -4436,14 +4722,14 @@
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="M6" s="8"/>
@@ -4455,14 +4741,14 @@
       <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25"/>
       <c r="K7" s="2"/>
       <c r="N7" s="8"/>
       <c r="R7" s="10"/>
@@ -4473,14 +4759,14 @@
       <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="L8" s="8"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
@@ -4490,14 +4776,14 @@
       <c r="W8" s="10"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
       <c r="L9" s="8"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
@@ -4507,14 +4793,14 @@
       <c r="W9" s="10"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
       <c r="M10" s="8"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
@@ -4524,16 +4810,16 @@
       <c r="W10" s="10"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25"/>
       <c r="N11" s="8"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -4543,14 +4829,14 @@
       <c r="W11" s="10"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="25"/>
       <c r="O12" s="8"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -4560,14 +4846,14 @@
       <c r="W12" s="10"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
       <c r="P13" s="8"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
@@ -4577,16 +4863,16 @@
       <c r="W13" s="10"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="25"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
@@ -4596,14 +4882,14 @@
       <c r="W14" s="10"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="25"/>
       <c r="R15" s="8"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -4612,14 +4898,14 @@
       <c r="W15" s="10"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25"/>
       <c r="R16" s="10"/>
       <c r="S16" s="8"/>
       <c r="T16" s="10"/>
@@ -4628,14 +4914,14 @@
       <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="8"/>
@@ -4644,14 +4930,14 @@
       <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -4660,16 +4946,16 @@
       <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -4681,14 +4967,14 @@
       <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="4"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
@@ -4698,14 +4984,14 @@
       <c r="W20" s="10"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="4"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
@@ -4715,14 +5001,14 @@
       <c r="W21" s="10"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="4"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
@@ -4732,14 +5018,14 @@
       <c r="W22" s="10"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="7"/>
@@ -4751,14 +5037,14 @@
       <c r="W23" s="10"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
       <c r="K24" s="2"/>
       <c r="M24" s="7"/>
       <c r="R24" s="10"/>
@@ -4769,14 +5055,14 @@
       <c r="W24" s="10"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
       <c r="L25" s="8"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
@@ -4786,16 +5072,16 @@
       <c r="W25" s="10"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="25"/>
       <c r="M26" s="8"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
@@ -4805,14 +5091,14 @@
       <c r="W26" s="10"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="25"/>
       <c r="N27" s="8"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
@@ -4822,14 +5108,14 @@
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25"/>
       <c r="O28" s="8"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -4839,16 +5125,16 @@
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="25"/>
       <c r="P29" s="8"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -4858,14 +5144,14 @@
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="25"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
@@ -4875,14 +5161,14 @@
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="25"/>
       <c r="R31" s="8"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
@@ -4891,16 +5177,16 @@
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -4912,14 +5198,14 @@
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="25"/>
       <c r="I33" s="4"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
@@ -4929,14 +5215,14 @@
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25"/>
       <c r="J34" s="4"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -4946,14 +5232,14 @@
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
       <c r="J35" s="4"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -4963,14 +5249,14 @@
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="25"/>
       <c r="K36" s="2"/>
       <c r="L36" s="8"/>
       <c r="R36" s="10"/>
@@ -4981,14 +5267,14 @@
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
       <c r="L37" s="8"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
@@ -4998,14 +5284,14 @@
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="25"/>
       <c r="M38" s="8"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
@@ -5015,16 +5301,16 @@
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
       <c r="N39" s="8"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
@@ -5034,14 +5320,14 @@
       <c r="W39" s="10"/>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
       <c r="O40" s="8"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
@@ -5051,16 +5337,16 @@
       <c r="W40" s="10"/>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
       <c r="P41" s="8"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
@@ -5070,14 +5356,14 @@
       <c r="W41" s="10"/>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="25"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
@@ -5087,14 +5373,14 @@
       <c r="W42" s="10"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="25"/>
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -5103,14 +5389,14 @@
       <c r="W43" s="10"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="25"/>
       <c r="R44" s="10"/>
       <c r="S44" s="8"/>
       <c r="T44" s="10"/>
@@ -5119,16 +5405,16 @@
       <c r="W44" s="10"/>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="20" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="25"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="8"/>
@@ -5137,14 +5423,14 @@
       <c r="W45" s="10"/>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="25"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
@@ -5153,14 +5439,14 @@
       <c r="W46" s="10"/>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="25"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
@@ -5169,9 +5455,9 @@
       <c r="W47" s="10"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -5185,16 +5471,16 @@
       <c r="W48" s="8"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="20" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="23" t="s">
+      <c r="F49" s="23"/>
+      <c r="G49" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -5206,14 +5492,14 @@
       <c r="W49" s="10"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="20" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="25"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="R50" s="10"/>
@@ -5224,14 +5510,14 @@
       <c r="W50" s="10"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="25"/>
       <c r="K51" s="4"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
@@ -5241,14 +5527,14 @@
       <c r="W51" s="10"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="25"/>
       <c r="L52" s="8"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
@@ -5258,14 +5544,14 @@
       <c r="W52" s="10"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="20" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="25"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="R53" s="10"/>
@@ -5276,14 +5562,14 @@
       <c r="W53" s="10"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="25"/>
       <c r="O54" s="8"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
@@ -5293,14 +5579,14 @@
       <c r="W54" s="10"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="25"/>
       <c r="P55" s="8"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
@@ -5310,14 +5596,14 @@
       <c r="W55" s="10"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="25"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
@@ -5327,14 +5613,14 @@
       <c r="W56" s="10"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="25"/>
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
@@ -5346,8 +5632,8 @@
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
@@ -5674,11 +5960,11 @@
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11" t="s">
@@ -5782,16 +6068,16 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -5823,14 +6109,14 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="11"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
@@ -5860,16 +6146,16 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
@@ -5897,14 +6183,14 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="2"/>
@@ -5934,14 +6220,14 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -5971,14 +6257,14 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -6008,14 +6294,14 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -6045,14 +6331,14 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -6082,16 +6368,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -6121,14 +6407,14 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -6158,14 +6444,14 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -6195,16 +6481,16 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -6234,14 +6520,14 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -6271,14 +6557,14 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -6308,14 +6594,14 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -6345,14 +6631,14 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -6382,16 +6668,16 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -6423,14 +6709,14 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="4"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -6460,14 +6746,14 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="11"/>
       <c r="I21" s="4"/>
       <c r="J21" s="11"/>
@@ -6497,14 +6783,14 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="11"/>
       <c r="I22" s="4"/>
       <c r="J22" s="11"/>
@@ -6534,14 +6820,14 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="2"/>
@@ -6571,14 +6857,14 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -6608,14 +6894,14 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -6645,16 +6931,16 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -6684,14 +6970,14 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -6721,14 +7007,14 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -6758,16 +7044,16 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -6797,14 +7083,14 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -6834,14 +7120,14 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -6871,16 +7157,16 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -6912,14 +7198,14 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="11"/>
       <c r="I33" s="4"/>
       <c r="J33" s="11"/>
@@ -6949,14 +7235,14 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="4"/>
@@ -6986,14 +7272,14 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="4"/>
@@ -7023,14 +7309,14 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -7060,14 +7346,14 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -7097,14 +7383,14 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -7134,16 +7420,16 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -7173,14 +7459,14 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -7210,16 +7496,16 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -7249,14 +7535,14 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -7286,14 +7572,14 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
@@ -7323,14 +7609,14 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -7360,16 +7646,16 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="20" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -7399,14 +7685,14 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -7436,14 +7722,14 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -7473,9 +7759,9 @@
     </row>
     <row r="48" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -7510,16 +7796,16 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="20" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="23" t="s">
+      <c r="F49" s="23"/>
+      <c r="G49" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -7551,14 +7837,14 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="20" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="11"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -7588,14 +7874,14 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -7625,14 +7911,14 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -7662,14 +7948,14 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="20" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
@@ -7699,14 +7985,14 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -7736,14 +8022,14 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -7773,14 +8059,14 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -7810,14 +8096,14 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -7850,8 +8136,8 @@
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -8581,8 +8867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8595,11 +8881,11 @@
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14" t="s">
@@ -8683,16 +8969,16 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="2"/>
@@ -8714,14 +9000,14 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="14"/>
       <c r="I4" s="2"/>
       <c r="J4" s="4"/>
@@ -8741,16 +9027,16 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="4"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
@@ -8768,14 +9054,14 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="2"/>
@@ -8795,14 +9081,14 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -8822,14 +9108,14 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
@@ -8849,14 +9135,14 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -8876,14 +9162,14 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -8903,16 +9189,16 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
@@ -8932,14 +9218,14 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="20" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -8959,14 +9245,14 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -8986,16 +9272,16 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -9015,14 +9301,14 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -9042,14 +9328,14 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -9069,14 +9355,14 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -9096,14 +9382,14 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="20" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -9123,16 +9409,16 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="20" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="26" t="s">
         <v>43</v>
       </c>
       <c r="H19" s="4"/>
@@ -9154,14 +9440,14 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="4"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -9181,14 +9467,14 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="14"/>
       <c r="I21" s="4"/>
       <c r="J21" s="14"/>
@@ -9208,14 +9494,14 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="14"/>
       <c r="I22" s="4"/>
       <c r="J22" s="14"/>
@@ -9235,14 +9521,14 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="2"/>
@@ -9262,14 +9548,14 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -9289,14 +9575,14 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -9316,16 +9602,16 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="20" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -9345,14 +9631,14 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
@@ -9372,14 +9658,14 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -9399,16 +9685,16 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -9428,14 +9714,14 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -9455,14 +9741,14 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="20" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -9482,16 +9768,16 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="23" t="s">
+      <c r="F32" s="23"/>
+      <c r="G32" s="26" t="s">
         <v>59</v>
       </c>
       <c r="H32" s="4"/>
@@ -9513,14 +9799,14 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="14"/>
       <c r="I33" s="4"/>
       <c r="J33" s="14"/>
@@ -9540,14 +9826,14 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="4"/>
@@ -9567,14 +9853,14 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="4"/>
@@ -9594,14 +9880,14 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -9621,14 +9907,14 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -9648,14 +9934,14 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="20" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
@@ -9675,16 +9961,16 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -9704,14 +9990,14 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -9731,16 +10017,16 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="20" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -9760,14 +10046,14 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -9787,14 +10073,14 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="25"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -9814,14 +10100,14 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="20" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="25"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -9841,16 +10127,16 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="20" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="25"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -9870,14 +10156,14 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="20" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -9897,14 +10183,14 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="20" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -9924,9 +10210,9 @@
     </row>
     <row r="48" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="5" t="s">
         <v>34</v>
       </c>
@@ -9951,16 +10237,16 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="20" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="23" t="s">
+      <c r="F49" s="23"/>
+      <c r="G49" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="4"/>
@@ -9982,14 +10268,14 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="20" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="25"/>
       <c r="H50" s="14"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -10009,14 +10295,14 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="25"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -10036,14 +10322,14 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="25"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
@@ -10063,14 +10349,14 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="20" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
@@ -10090,14 +10376,14 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
@@ -10117,14 +10403,14 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -10144,14 +10430,14 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="14"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -10171,14 +10457,14 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="20" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="22"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="25"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -10201,8 +10487,8 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
@@ -10554,16 +10840,16 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B14:D18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="B19:D25"/>
     <mergeCell ref="E19:F19"/>
@@ -10621,4 +10907,1995 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="10"/>
+    </row>
+    <row r="48" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="8"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+    </row>
+    <row r="58" spans="1:23" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G49:G57"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B49:D57"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B32:D38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G47"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B39:D40"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:D31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="B19:D25"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:G31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:D28"/>
+    <mergeCell ref="B14:D18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:G18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>